--- a/DDAf_2023_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -7670,7 +7670,7 @@
         <v>443562.69320034498</v>
       </c>
       <c r="J87" s="54">
-        <v>31653.94312023</v>
+        <v>31653.943120219999</v>
       </c>
       <c r="K87" s="54">
         <v>0</v>

--- a/DDAf_2023_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{869DAB61-485D-477E-9900-3C3E4D2028C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F8109A-999E-4372-B95D-BC14C5424F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{309410B6-A9CE-4C03-9E2C-DE4F4850152C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A8FD52F2-8CEA-4FA3-8E39-FE4972511BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab26'!$A$1:$K$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="188">
-  <si>
-    <t>Tableau 26 : Électricité et énergie durable</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="196">
+  <si>
+    <t>Tableau 26 : Production d'électricité et énergie durable</t>
   </si>
   <si>
     <t>ISO3 Code</t>
@@ -47,6 +47,24 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
+    <t>Population ayant accès à l'électricité (milliers), 2020</t>
+  </si>
+  <si>
+    <t>Population urbaine ayant accès à l'électricité (milliers), 2020</t>
+  </si>
+  <si>
+    <t>Population rurale ayant accès à l'électricité (milliers), 2020</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population ayant accès à l'électricité, 2020</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population urbaine ayant accès à l'électricité, 2020</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population rurale ayant accès à l'électricité, 2020</t>
+  </si>
+  <si>
     <t>Flux publics vers l'énergie solaire en millions de dollars US de 2020, 2020</t>
   </si>
   <si>
@@ -86,6 +104,9 @@
     <t>Capacité d'énergie électrique à partir de biocarburants en mégawatts (MW), 2020</t>
   </si>
   <si>
+    <t>Capacité d'énergie électrique renouvelables n.d.a. en mégawatts (MW), 2020</t>
+  </si>
+  <si>
     <t>Capacité d'énergie électrique nucléaire en mégawatts (MW), 2020</t>
   </si>
   <si>
@@ -110,6 +131,9 @@
     <t>Production d'énergie électrique à partir de biocarburants en gigawattheures (GWh), 2020</t>
   </si>
   <si>
+    <t>Production d'énergie électrique renouvelables n.d.a. en gigawattheures (GWh), 2020</t>
+  </si>
+  <si>
     <t>Production d'énergie électrique nucléaire en GigaWattheures (GWh), 2020</t>
   </si>
   <si>
@@ -308,7 +332,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -386,7 +410,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -440,7 +464,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -584,7 +608,7 @@
     <t>Les statistiques sur l'accès à l'électricité sont tirées des pourcentages de la population ayant accès à l'électricité dans les Indicateurs du développement dans le monde de la Banque mondiale ajustés avec les estimations des Nations Unies sur les populations rurales, urbaines et totales. Des imputation ont été utilisée sur les chiffres manquants et des ajustements ont été apportés aux chiffres totaux pour plus de cohérence entre les valeurs pour les populations urbaines et rurales.</t>
   </si>
   <si>
-    <t>Source : Indicateurs du développement dans le monde de la Banque mondiale (chiffres sur l'accès à l'électricité téléchargés le 27/03/2023), Division de la population du Département des affaires économiques et sociales des Nations Unies, World Population Prospects: the 2022 Revision, Renewable Energy Statistics 2022, International Renewable Energy Agency (IRENA)( récupéré le 10/06/2022).</t>
+    <t>Source : Banque mondiale, Indicateurs du développement dans le monde (électricité) : Indicateurs du développement mondial de la Banque mondiale (chiffres sur l'accès à l'électricité téléchargés le 27/03/2023), Perspectives de la population mondiale : la révision de 2022 - Division de la population du Département des affaires économiques et sociales des Nations unies, Statistiques sur les énergies renouvelables 2022, Agence internationale pour les énergies renouvelables (IRENA)(récupéré le 06/10/2022).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1342,8 +1366,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E7EC35-C325-48B3-AD3B-6B7FFBA0B7C5}">
-  <dimension ref="A1:AI114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30A71C5-2113-4EE8-94E0-20CBCB5BADEF}">
+  <dimension ref="A1:AH114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1352,10 +1376,10 @@
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="35" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="34" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1391,119 +1415,117 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D2" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2" s="7" t="e">
-        <v>#N/A</v>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="6" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="6" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI2" s="7"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10">
         <v>17278.801098115</v>
@@ -1524,37 +1546,37 @@
         <v>7.3334450725047198</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="10">
         <v>13.377000000000001</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T3" s="10">
         <v>3729.279</v>
@@ -1563,13 +1585,13 @@
         <v>51</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="11">
         <v>2136.8560000000002</v>
@@ -1578,10 +1600,10 @@
         <v>18.27</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC3" s="10">
         <v>13801.68</v>
@@ -1590,27 +1612,24 @@
         <v>200</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG3" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH3" s="11">
         <v>4996.16</v>
       </c>
-      <c r="AI3" s="11">
-        <v>4996.16</v>
-      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13">
         <v>1833.27614309606</v>
@@ -1631,52 +1650,52 @@
         <v>26.382898330688501</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="13">
         <v>5.9429999999999996</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="14">
         <v>917</v>
@@ -1685,39 +1704,36 @@
         <v>5.99</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH4" s="14">
         <v>2273.5</v>
       </c>
-      <c r="AI4" s="14">
-        <v>2273.5</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C5" s="16">
         <v>941.34220026806099</v>
@@ -1741,34 +1757,34 @@
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N5" s="16">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="16">
         <v>0.93</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T5" s="16">
         <v>62.1</v>
@@ -1777,13 +1793,13 @@
         <v>106</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="17">
         <v>9.9</v>
@@ -1792,10 +1808,10 @@
         <v>1.27</v>
       </c>
       <c r="AA5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="16">
         <v>230.38</v>
@@ -1804,27 +1820,24 @@
         <v>188.82</v>
       </c>
       <c r="AE5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI5" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" s="16">
         <v>1067.3780543365499</v>
@@ -1848,49 +1861,49 @@
         <v>75.082999999999998</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L6" s="16">
         <v>1.5583</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N6" s="16">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="16">
         <v>0.36299999999999999</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T6" s="16">
         <v>74.75</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="17">
         <v>0.12</v>
@@ -1899,39 +1912,36 @@
         <v>0.76</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC6" s="16">
         <v>416.73</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH6" s="17">
         <v>1.06</v>
       </c>
-      <c r="AI6" s="17">
-        <v>1.06</v>
-      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C7" s="16">
         <v>2880.7430223551801</v>
@@ -1955,34 +1965,34 @@
         <v>1.5871</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L7" s="16">
         <v>0.53420000000000001</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N7" s="16">
         <v>0.84609999999999996</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="16">
         <v>81.5</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T7" s="16">
         <v>373.9</v>
@@ -1991,13 +2001,13 @@
         <v>12</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="17">
         <v>140.774</v>
@@ -2006,10 +2016,10 @@
         <v>167.65</v>
       </c>
       <c r="AA7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC7" s="16">
         <v>1641.55</v>
@@ -2018,27 +2028,24 @@
         <v>53.85</v>
       </c>
       <c r="AE7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH7" s="17">
         <v>518.04999999999995</v>
       </c>
-      <c r="AI7" s="17">
-        <v>518.04999999999995</v>
-      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8" s="16">
         <v>9541.7359604655703</v>
@@ -2059,25 +2066,25 @@
         <v>4.4686910780751701</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N8" s="16">
         <v>140.85390000000001</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P8" s="17">
         <v>574.30709999999999</v>
@@ -2086,10 +2093,10 @@
         <v>55</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T8" s="16">
         <v>2203.59</v>
@@ -2098,13 +2105,13 @@
         <v>14</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="17">
         <v>602.39</v>
@@ -2113,10 +2120,10 @@
         <v>1.65</v>
       </c>
       <c r="AA8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC8" s="16">
         <v>4137.8900000000003</v>
@@ -2125,27 +2132,24 @@
         <v>61.46</v>
       </c>
       <c r="AE8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH8" s="17">
         <v>554</v>
       </c>
-      <c r="AI8" s="17">
-        <v>554</v>
-      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C9" s="16">
         <v>1400.3340195900701</v>
@@ -2166,28 +2170,28 @@
         <v>36.288032976572097</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N9" s="16">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="16">
         <v>144.958</v>
@@ -2196,7 +2200,7 @@
         <v>5.2309999999999999</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T9" s="16">
         <v>351</v>
@@ -2205,13 +2209,13 @@
         <v>0.25</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y9" s="17">
         <v>183.31</v>
@@ -2223,7 +2227,7 @@
         <v>21.63</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC9" s="16">
         <v>1236.5</v>
@@ -2232,27 +2236,24 @@
         <v>0.22</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH9" s="17">
         <v>158.25</v>
       </c>
-      <c r="AI9" s="17">
-        <v>158.25</v>
-      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C10" s="16">
         <v>49620.321202393803</v>
@@ -2276,13 +2277,13 @@
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M10" s="16">
         <v>3.5499999999999997E-2</v>
@@ -2291,10 +2292,10 @@
         <v>6.7249999999999996</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="16">
         <v>5989.5780000000004</v>
@@ -2303,7 +2304,7 @@
         <v>2516</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T10" s="16">
         <v>747.65</v>
@@ -2312,7 +2313,7 @@
         <v>264.685</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W10" s="16">
         <v>1940</v>
@@ -2330,7 +2331,7 @@
         <v>299.5</v>
       </c>
       <c r="AB10" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC10" s="16">
         <v>1233.02</v>
@@ -2339,7 +2340,7 @@
         <v>431.33</v>
       </c>
       <c r="AE10" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF10" s="16">
         <v>10740.25</v>
@@ -2350,16 +2351,13 @@
       <c r="AH10" s="17">
         <v>187686.32</v>
       </c>
-      <c r="AI10" s="17">
-        <v>187686.32</v>
-      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C11" s="13">
         <v>8427.4657517303604</v>
@@ -2383,34 +2381,34 @@
         <v>0.2223</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L11" s="13">
         <v>12.116899999999999</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N11" s="13">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="13">
         <v>96.424000000000007</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T11" s="13">
         <v>2398.9969999999998</v>
@@ -2419,13 +2417,13 @@
         <v>42.8</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y11" s="14">
         <v>524.6</v>
@@ -2434,10 +2432,10 @@
         <v>163.06</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC11" s="13">
         <v>12794.96</v>
@@ -2446,27 +2444,24 @@
         <v>78.31</v>
       </c>
       <c r="AE11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG11" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH11" s="14">
         <v>2216.09</v>
       </c>
-      <c r="AI11" s="14">
-        <v>2216.09</v>
-      </c>
     </row>
-    <row r="12" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C12" s="16">
         <v>8265.3835895542197</v>
@@ -2487,37 +2482,37 @@
         <v>37.060251378503203</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N12" s="16">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="16">
         <v>18.283000000000001</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T12" s="16">
         <v>1081.0550000000001</v>
@@ -2526,13 +2521,13 @@
         <v>100</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y12" s="17">
         <v>1200</v>
@@ -2541,10 +2536,10 @@
         <v>33.520000000000003</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC12" s="16">
         <v>3882</v>
@@ -2553,27 +2548,24 @@
         <v>283.10000000000002</v>
       </c>
       <c r="AE12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG12" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH12" s="17">
         <v>2477.3000000000002</v>
       </c>
-      <c r="AI12" s="17">
-        <v>2477.3000000000002</v>
-      </c>
     </row>
-    <row r="13" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C13" s="20">
         <v>101256.78104190499</v>
@@ -2597,10 +2589,10 @@
         <v>76.968699999999998</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L13" s="20">
         <v>14.2094</v>
@@ -2612,7 +2604,7 @@
         <v>148.49700000000001</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P13" s="21">
         <v>574.30709999999999</v>
@@ -2624,7 +2616,7 @@
         <v>2521.2310000000002</v>
       </c>
       <c r="S13" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T13" s="20">
         <v>11022.321</v>
@@ -2633,7 +2625,7 @@
         <v>590.73500000000001</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W13" s="20">
         <v>1940</v>
@@ -2651,7 +2643,7 @@
         <v>321.13</v>
       </c>
       <c r="AB13" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC13" s="20">
         <v>39374.71</v>
@@ -2660,7 +2652,7 @@
         <v>1297.0899999999999</v>
       </c>
       <c r="AE13" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF13" s="20">
         <v>10740.25</v>
@@ -2671,16 +2663,13 @@
       <c r="AH13" s="21">
         <v>200880.73</v>
       </c>
-      <c r="AI13" s="21">
-        <v>200880.73</v>
-      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C14" s="16">
         <v>1434.11157481124</v>
@@ -2704,34 +2693,34 @@
         <v>91.046000000000006</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M14" s="16">
         <v>17.530799999999999</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="16">
         <v>5.1029999999999998</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T14" s="16">
         <v>48.283000000000001</v>
@@ -2740,13 +2729,13 @@
         <v>4</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y14" s="17">
         <v>50.5</v>
@@ -2755,10 +2744,10 @@
         <v>7.93</v>
       </c>
       <c r="AA14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC14" s="16">
         <v>271.58999999999997</v>
@@ -2767,27 +2756,24 @@
         <v>5.55</v>
       </c>
       <c r="AE14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG14" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH14" s="17">
         <v>118.02</v>
       </c>
-      <c r="AI14" s="17">
-        <v>118.02</v>
-      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C15" s="16">
         <v>17145.393767915299</v>
@@ -2811,49 +2797,49 @@
         <v>35.021900000000002</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N15" s="16">
         <v>2.7538</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="16">
         <v>14.317</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T15" s="16">
         <v>812.3</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y15" s="17">
         <v>705</v>
@@ -2862,39 +2848,36 @@
         <v>19.670000000000002</v>
       </c>
       <c r="AA15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC15" s="16">
         <v>5089.8999999999996</v>
       </c>
       <c r="AD15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG15" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH15" s="17">
         <v>1336.15</v>
       </c>
-      <c r="AI15" s="17">
-        <v>1336.15</v>
-      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C16" s="16">
         <v>826.30253519363305</v>
@@ -2918,49 +2901,49 @@
         <v>5.9318</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="16">
         <v>0.316</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T16" s="16">
         <v>18.850000000000001</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y16" s="17">
         <v>22</v>
@@ -2969,39 +2952,36 @@
         <v>0.43</v>
       </c>
       <c r="AA16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC16" s="16">
         <v>135.6</v>
       </c>
       <c r="AD16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG16" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH16" s="17">
         <v>5.2</v>
       </c>
-      <c r="AI16" s="17">
-        <v>5.2</v>
-      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C17" s="23">
         <v>1844.2523895833201</v>
@@ -3025,25 +3005,25 @@
         <v>10.5474</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="23">
         <v>0.72699999999999998</v>
@@ -3052,22 +3032,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U17" s="23">
         <v>2</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y17" s="24">
         <v>282</v>
@@ -3079,36 +3059,33 @@
         <v>8.9</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD17" s="23">
         <v>9.5</v>
       </c>
       <c r="AE17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG17" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH17" s="24">
         <v>325.64</v>
       </c>
-      <c r="AI17" s="24">
-        <v>325.64</v>
-      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C18" s="23">
         <v>2823.5512751889801</v>
@@ -3129,37 +3106,37 @@
         <v>14.7540329829279</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N18" s="23">
         <v>0.29849999999999999</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="23">
         <v>0.72</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T18" s="23">
         <v>213.9</v>
@@ -3168,13 +3145,13 @@
         <v>12.2</v>
       </c>
       <c r="V18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y18" s="24">
         <v>596.66</v>
@@ -3183,39 +3160,36 @@
         <v>0.9</v>
       </c>
       <c r="AA18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC18" s="23">
         <v>1046</v>
       </c>
       <c r="AD18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG18" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH18" s="24">
         <v>1573.4</v>
       </c>
-      <c r="AI18" s="24">
-        <v>1573.4</v>
-      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C19" s="13">
         <v>17734.954678206701</v>
@@ -3236,37 +3210,37 @@
         <v>1.0000018181369099</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N19" s="13">
         <v>7.6E-3</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="13">
         <v>19.927</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T19" s="13">
         <v>2722.7</v>
@@ -3275,13 +3249,13 @@
         <v>2.96</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y19" s="14">
         <v>29</v>
@@ -3290,39 +3264,36 @@
         <v>28.14</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC19" s="13">
         <v>11890.76</v>
       </c>
       <c r="AD19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG19" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH19" s="14">
         <v>112.03</v>
       </c>
-      <c r="AI19" s="14">
-        <v>112.03</v>
-      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C20" s="23">
         <v>1065.3264561552901</v>
@@ -3343,93 +3314,90 @@
         <v>0.93263000249863004</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T20" s="23">
         <v>127.14</v>
       </c>
       <c r="U20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y20" s="24">
         <v>273.971</v>
       </c>
       <c r="Z20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AA20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC20" s="23">
         <v>127</v>
       </c>
       <c r="AD20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG20" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH20" s="24">
         <v>937.07</v>
       </c>
-      <c r="AI20" s="24">
-        <v>937.07</v>
-      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C21" s="23">
         <v>2099.3449455386299</v>
@@ -3450,37 +3418,37 @@
         <v>27.7633441386443</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="23">
         <v>1.4</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T21" s="23">
         <v>330.28699999999998</v>
@@ -3489,13 +3457,13 @@
         <v>1.2</v>
       </c>
       <c r="V21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y21" s="24">
         <v>279.47000000000003</v>
@@ -3504,10 +3472,10 @@
         <v>1.92</v>
       </c>
       <c r="AA21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC21" s="23">
         <v>982.39</v>
@@ -3516,27 +3484,24 @@
         <v>1.22</v>
       </c>
       <c r="AE21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG21" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH21" s="24">
         <v>840</v>
       </c>
-      <c r="AI21" s="24">
-        <v>840</v>
-      </c>
     </row>
-    <row r="22" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C22" s="16">
         <v>167.38955922493</v>
@@ -3557,52 +3522,52 @@
         <v>71.077508254810795</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L22" s="16">
         <v>13.5595</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="16">
         <v>0.33400000000000002</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T22" s="16">
         <v>2.3199999999999998</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y22" s="17">
         <v>44.905000000000001</v>
@@ -3611,39 +3576,36 @@
         <v>0.42</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC22" s="16">
         <v>5.89</v>
       </c>
       <c r="AD22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG22" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH22" s="17">
         <v>95.53</v>
       </c>
-      <c r="AI22" s="17">
-        <v>95.53</v>
-      </c>
     </row>
-    <row r="23" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C23" s="20">
         <v>45140.627181818003</v>
@@ -3667,10 +3629,10 @@
         <v>142.5471</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L23" s="20">
         <v>13.5595</v>
@@ -3682,10 +3644,10 @@
         <v>3.0598999999999998</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="20">
         <v>42.844000000000001</v>
@@ -3694,7 +3656,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T23" s="20">
         <v>4275.78</v>
@@ -3703,13 +3665,13 @@
         <v>22.36</v>
       </c>
       <c r="V23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y23" s="21">
         <v>2283.5059999999999</v>
@@ -3721,7 +3683,7 @@
         <v>8.9</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC23" s="20">
         <v>19549.13</v>
@@ -3730,27 +3692,24 @@
         <v>16.27</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG23" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH23" s="21">
         <v>5343.04</v>
       </c>
-      <c r="AI23" s="21">
-        <v>5343.04</v>
-      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C24" s="16">
         <v>699.24530658416802</v>
@@ -3774,90 +3733,87 @@
         <v>16.410499999999999</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N24" s="16">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T24" s="16">
         <v>1.448</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y24" s="17">
         <v>21.6</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH24" s="17">
         <v>50.12</v>
       </c>
-      <c r="AI24" s="17">
-        <v>50.12</v>
-      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C25" s="16">
         <v>673.35761833240497</v>
@@ -3881,22 +3837,22 @@
         <v>6.6299999999999998E-2</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N25" s="16">
         <v>1.3705000000000001</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P25" s="17">
         <v>95.713200000000001</v>
@@ -3905,25 +3861,25 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y25" s="17">
         <v>123</v>
@@ -3932,39 +3888,36 @@
         <v>0.6</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG25" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH25" s="17">
         <v>568</v>
       </c>
-      <c r="AI25" s="17">
-        <v>568</v>
-      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C26" s="16">
         <v>1935.7482100346999</v>
@@ -3985,28 +3938,28 @@
         <v>39.024684905257502</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="16">
         <v>22.209</v>
@@ -4015,22 +3968,22 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y26" s="17">
         <v>205</v>
@@ -4042,36 +3995,33 @@
         <v>2</v>
       </c>
       <c r="AB26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG26" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH26" s="17">
         <v>419</v>
       </c>
-      <c r="AI26" s="17">
-        <v>419</v>
-      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C27" s="16">
         <v>59877.503788249604</v>
@@ -4095,22 +4045,22 @@
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N27" s="16">
         <v>0.56720000000000004</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P27" s="17">
         <v>5.3E-3</v>
@@ -4131,13 +4081,13 @@
         <v>290</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y27" s="17">
         <v>104</v>
@@ -4149,7 +4099,7 @@
         <v>609.04</v>
       </c>
       <c r="AB27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC27" s="16">
         <v>14403.7</v>
@@ -4158,27 +4108,24 @@
         <v>29.98</v>
       </c>
       <c r="AE27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG27" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI27" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C28" s="16">
         <v>37137.571627114899</v>
@@ -4202,25 +4149,25 @@
         <v>19.795000000000002</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N28" s="16">
         <v>2.5152000000000001</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="16">
         <v>105.827</v>
@@ -4238,13 +4185,13 @@
         <v>87.203999999999994</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y28" s="17">
         <v>751.4</v>
@@ -4265,27 +4212,24 @@
         <v>159.43</v>
       </c>
       <c r="AE28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG28" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH28" s="17">
         <v>2409.1799999999998</v>
       </c>
-      <c r="AI28" s="17">
-        <v>2409.1799999999998</v>
-      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C29" s="16">
         <v>9521.7852538381503</v>
@@ -4306,28 +4250,28 @@
         <v>10.8984851838289</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="16">
         <v>33</v>
@@ -4336,7 +4280,7 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T29" s="16">
         <v>163.79900000000001</v>
@@ -4345,13 +4289,13 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y29" s="17">
         <v>622</v>
@@ -4363,7 +4307,7 @@
         <v>0.47</v>
       </c>
       <c r="AB29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC29" s="16">
         <v>844.46</v>
@@ -4372,27 +4316,24 @@
         <v>0.62</v>
       </c>
       <c r="AE29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG29" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH29" s="17">
         <v>1018.48</v>
       </c>
-      <c r="AI29" s="17">
-        <v>1018.48</v>
-      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C30" s="16">
         <v>1293.43684870785</v>
@@ -4413,28 +4354,28 @@
         <v>99.835762023925795</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="16">
         <v>83.49</v>
@@ -4443,7 +4384,7 @@
         <v>10.63</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T30" s="16">
         <v>60.74</v>
@@ -4452,13 +4393,13 @@
         <v>90.65</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y30" s="17">
         <v>610.1</v>
@@ -4470,7 +4411,7 @@
         <v>18</v>
       </c>
       <c r="AB30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC30" s="16">
         <v>116</v>
@@ -4479,27 +4420,24 @@
         <v>409</v>
       </c>
       <c r="AE30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG30" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH30" s="17">
         <v>2194</v>
       </c>
-      <c r="AI30" s="17">
-        <v>2194</v>
-      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C31" s="16">
         <v>6126.20484889198</v>
@@ -4523,10 +4461,10 @@
         <v>14.609</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L31" s="16">
         <v>242.8999</v>
@@ -4535,22 +4473,22 @@
         <v>11.687200000000001</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="16">
         <v>38.338000000000001</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T31" s="16">
         <v>119.563</v>
@@ -4559,13 +4497,13 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="V31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y31" s="17">
         <v>114.14</v>
@@ -4574,10 +4512,10 @@
         <v>56.31</v>
       </c>
       <c r="AA31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC31" s="16">
         <v>518.78</v>
@@ -4586,27 +4524,24 @@
         <v>2.33</v>
       </c>
       <c r="AE31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG31" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH31" s="17">
         <v>339.44</v>
       </c>
-      <c r="AI31" s="17">
-        <v>339.44</v>
-      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C32" s="16">
         <v>105.53</v>
@@ -4627,28 +4562,28 @@
         <v>100</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="16">
         <v>3.7879999999999998</v>
@@ -4657,22 +4592,22 @@
         <v>6</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y32" s="17">
         <v>116.4</v>
@@ -4684,36 +4619,33 @@
         <v>5.99</v>
       </c>
       <c r="AB32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH32" s="17">
         <v>430.13</v>
       </c>
-      <c r="AI32" s="17">
-        <v>430.13</v>
-      </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C33" s="16">
         <v>8224.0019639604307</v>
@@ -4737,25 +4669,25 @@
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N33" s="16">
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="16">
         <v>15.538</v>
@@ -4764,22 +4696,22 @@
         <v>3.55</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y33" s="17">
         <v>100</v>
@@ -4791,143 +4723,137 @@
         <v>6.22</v>
       </c>
       <c r="AB33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH33" s="17">
         <v>700</v>
       </c>
-      <c r="AI33" s="17">
-        <v>700</v>
-      </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="13">
+        <v>97</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="23">
         <v>768.03278201776004</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="23">
         <v>297.11566929897202</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="23">
         <v>470.91711271878802</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="23">
         <v>7.2413383384851198</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="23">
         <v>13.8686685560192</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="24">
         <v>5.5638475418287996</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="13">
+      <c r="I34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="23">
         <v>0.83499999999999996</v>
       </c>
-      <c r="R34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="W34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y34" s="14">
+      <c r="R34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y34" s="24">
         <v>174.4</v>
       </c>
-      <c r="Z34" s="13">
+      <c r="Z34" s="23">
         <v>1.25</v>
       </c>
-      <c r="AA34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH34" s="14">
+      <c r="AA34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH34" s="24">
         <v>580</v>
       </c>
-      <c r="AI34" s="14">
-        <v>580</v>
-      </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C35" s="16">
         <v>24615.452695198601</v>
@@ -4951,34 +4877,34 @@
         <v>17.927199999999999</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N35" s="16">
         <v>0.1386</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="16">
         <v>117.13</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T35" s="16">
         <v>1482</v>
@@ -4987,13 +4913,13 @@
         <v>199</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y35" s="17">
         <v>1935</v>
@@ -5002,10 +4928,10 @@
         <v>27.51</v>
       </c>
       <c r="AA35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC35" s="16">
         <v>11008</v>
@@ -5014,27 +4940,24 @@
         <v>103.85</v>
       </c>
       <c r="AE35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG35" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH35" s="17">
         <v>5408.72</v>
       </c>
-      <c r="AI35" s="17">
-        <v>5408.72</v>
-      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C36" s="16">
         <v>24620.103623536201</v>
@@ -5061,22 +4984,22 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N36" s="16">
         <v>15.424799999999999</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q36" s="16">
         <v>23.643999999999998</v>
@@ -5085,7 +5008,7 @@
         <v>2.4</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T36" s="16">
         <v>589.12</v>
@@ -5094,13 +5017,13 @@
         <v>70.185000000000002</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y36" s="17">
         <v>1317.6759999999999</v>
@@ -5109,10 +5032,10 @@
         <v>42.36</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC36" s="16">
         <v>3223.58</v>
@@ -5121,27 +5044,24 @@
         <v>151.35</v>
       </c>
       <c r="AE36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH36" s="17">
         <v>4558.2</v>
       </c>
-      <c r="AI36" s="17">
-        <v>4558.2</v>
-      </c>
     </row>
-    <row r="37" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C37" s="16">
         <v>18682.9817730332</v>
@@ -5165,34 +5085,34 @@
         <v>0.83760000000000001</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M37" s="16">
         <v>1.11E-2</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q37" s="16">
         <v>87.292000000000002</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T37" s="16">
         <v>1010.6</v>
@@ -5201,13 +5121,13 @@
         <v>96.2</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y37" s="17">
         <v>102.68</v>
@@ -5216,10 +5136,10 @@
         <v>122.04</v>
       </c>
       <c r="AA37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC37" s="16">
         <v>4028.12</v>
@@ -5228,27 +5148,24 @@
         <v>267.82</v>
       </c>
       <c r="AE37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG37" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH37" s="17">
         <v>59.03</v>
       </c>
-      <c r="AI37" s="17">
-        <v>59.03</v>
-      </c>
     </row>
-    <row r="38" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C38" s="20">
         <v>194280.9563395</v>
@@ -5275,7 +5192,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L38" s="20">
         <v>242.8999</v>
@@ -5287,7 +5204,7 @@
         <v>20.117899999999999</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P38" s="21">
         <v>95.718500000000006</v>
@@ -5308,13 +5225,13 @@
         <v>834.30799999999999</v>
       </c>
       <c r="V38" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y38" s="21">
         <v>6297.3959999999997</v>
@@ -5335,27 +5252,24 @@
         <v>1124.3800000000001</v>
       </c>
       <c r="AE38" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF38" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG38" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH38" s="21">
         <v>18734.3</v>
       </c>
-      <c r="AI38" s="21">
-        <v>18734.3</v>
-      </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C39" s="23">
         <v>43366.557462614597</v>
@@ -5376,28 +5290,28 @@
         <v>99.579903407993896</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N39" s="23">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="23">
         <v>448</v>
@@ -5406,22 +5320,22 @@
         <v>10</v>
       </c>
       <c r="S39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T39" s="23">
         <v>228</v>
       </c>
       <c r="U39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y39" s="24">
         <v>24077.599999999999</v>
@@ -5433,36 +5347,33 @@
         <v>8</v>
       </c>
       <c r="AB39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC39" s="23">
         <v>50</v>
       </c>
       <c r="AD39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG39" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH39" s="24">
         <v>78691</v>
       </c>
-      <c r="AI39" s="24">
-        <v>78691</v>
-      </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C40" s="16">
         <v>107465.13400000001</v>
@@ -5483,25 +5394,25 @@
         <v>100.000000000358</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J40" s="16">
         <v>126.6771</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N40" s="16">
         <v>6.7577999999999996</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P40" s="17">
         <v>8.6300000000000002E-2</v>
@@ -5513,7 +5424,7 @@
         <v>1380</v>
       </c>
       <c r="S40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T40" s="16">
         <v>2832</v>
@@ -5522,13 +5433,13 @@
         <v>79</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y40" s="17">
         <v>53242.89</v>
@@ -5540,7 +5451,7 @@
         <v>4245.45</v>
       </c>
       <c r="AB40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC40" s="16">
         <v>15038</v>
@@ -5549,27 +5460,24 @@
         <v>328.27</v>
       </c>
       <c r="AE40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG40" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH40" s="17">
         <v>173613.87</v>
       </c>
-      <c r="AI40" s="17">
-        <v>173613.87</v>
-      </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C41" s="23">
         <v>4638.2867508273303</v>
@@ -5593,49 +5501,49 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="23">
         <v>5.1109999999999998</v>
       </c>
       <c r="R41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y41" s="24">
         <v>10763</v>
@@ -5644,39 +5552,36 @@
         <v>7.79</v>
       </c>
       <c r="AA41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG41" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH41" s="24">
         <v>33711</v>
       </c>
-      <c r="AI41" s="24">
-        <v>33711</v>
-      </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C42" s="23">
         <v>2286.0535772285998</v>
@@ -5697,28 +5602,28 @@
         <v>4.3018969876285196</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N42" s="23">
         <v>27.6402</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="23">
         <v>87.509</v>
@@ -5727,22 +5632,22 @@
         <v>34.4</v>
       </c>
       <c r="S42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y42" s="24">
         <v>464.625</v>
@@ -5754,36 +5659,33 @@
         <v>131.19999999999999</v>
       </c>
       <c r="AB42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG42" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH42" s="24">
         <v>1099</v>
       </c>
-      <c r="AI42" s="24">
-        <v>1099</v>
-      </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C43" s="16">
         <v>36688.771999999997</v>
@@ -5804,28 +5706,28 @@
         <v>100.000000000299</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L43" s="16">
         <v>165.23099999999999</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N43" s="16">
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q43" s="16">
         <v>734</v>
@@ -5834,7 +5736,7 @@
         <v>1405</v>
       </c>
       <c r="S43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T43" s="16">
         <v>1305.5329999999999</v>
@@ -5843,10 +5745,10 @@
         <v>7.4</v>
       </c>
       <c r="V43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X43" s="16">
         <v>464</v>
@@ -5861,7 +5763,7 @@
         <v>4607.13</v>
       </c>
       <c r="AB43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC43" s="16">
         <v>867.64</v>
@@ -5870,10 +5772,10 @@
         <v>40.06</v>
       </c>
       <c r="AE43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF43" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG43" s="16">
         <v>422.45</v>
@@ -5881,16 +5783,13 @@
       <c r="AH43" s="17">
         <v>31352.73</v>
       </c>
-      <c r="AI43" s="17">
-        <v>31352.73</v>
-      </c>
     </row>
-    <row r="44" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C44" s="16">
         <v>12161.723</v>
@@ -5911,28 +5810,28 @@
         <v>100.00000000108101</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N44" s="16">
         <v>18.754100000000001</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q44" s="16">
         <v>94.89</v>
@@ -5941,22 +5840,22 @@
         <v>245</v>
       </c>
       <c r="S44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T44" s="16">
         <v>66</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y44" s="17">
         <v>5382</v>
@@ -5968,36 +5867,33 @@
         <v>465</v>
       </c>
       <c r="AB44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC44" s="16">
         <v>46</v>
       </c>
       <c r="AD44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG44" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH44" s="17">
         <v>20326.900000000001</v>
       </c>
-      <c r="AI44" s="17">
-        <v>20326.900000000001</v>
-      </c>
     </row>
-    <row r="45" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C45" s="20">
         <v>206606.52679067099</v>
@@ -6024,19 +5920,19 @@
         <v>126.6771</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L45" s="20">
         <v>165.23099999999999</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N45" s="20">
         <v>53.211300000000001</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P45" s="21">
         <v>8.6300000000000002E-2</v>
@@ -6048,7 +5944,7 @@
         <v>3074.4</v>
       </c>
       <c r="S45" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T45" s="20">
         <v>4431.5330000000004</v>
@@ -6057,10 +5953,10 @@
         <v>86.4</v>
       </c>
       <c r="V45" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X45" s="20">
         <v>464</v>
@@ -6075,7 +5971,7 @@
         <v>9456.7800000000007</v>
       </c>
       <c r="AB45" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC45" s="20">
         <v>16001.64</v>
@@ -6084,10 +5980,10 @@
         <v>368.33</v>
       </c>
       <c r="AE45" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF45" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG45" s="20">
         <v>422.45</v>
@@ -6095,16 +5991,13 @@
       <c r="AH45" s="21">
         <v>338794.5</v>
       </c>
-      <c r="AI45" s="21">
-        <v>338794.5</v>
-      </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C46" s="16">
         <v>5235.6384000961198</v>
@@ -6128,22 +6021,22 @@
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P46" s="17">
         <v>27.3748</v>
@@ -6152,25 +6045,25 @@
         <v>2.94</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T46" s="16">
         <v>0.5</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y46" s="17">
         <v>301</v>
@@ -6179,39 +6072,36 @@
         <v>5.34</v>
       </c>
       <c r="AA46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC46" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH46" s="17">
         <v>1340.3</v>
       </c>
-      <c r="AI46" s="17">
-        <v>1340.3</v>
-      </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C47" s="16">
         <v>4080.0956823955198</v>
@@ -6235,13 +6125,13 @@
         <v>63.091299999999997</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M47" s="16">
         <v>1.54E-2</v>
@@ -6250,19 +6140,19 @@
         <v>5.1700000000000003E-2</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q47" s="16">
         <v>62.387</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T47" s="16">
         <v>34.5</v>
@@ -6271,13 +6161,13 @@
         <v>0.9</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y47" s="17">
         <v>339.16</v>
@@ -6286,10 +6176,10 @@
         <v>100.85</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC47" s="16">
         <v>112.39</v>
@@ -6298,27 +6188,24 @@
         <v>1.3</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG47" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH47" s="17">
         <v>528.21</v>
       </c>
-      <c r="AI47" s="17">
-        <v>528.21</v>
-      </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C48" s="23">
         <v>548.62398037109404</v>
@@ -6339,28 +6226,28 @@
         <v>93.513702947143599</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q48" s="23">
         <v>7.5810000000000004</v>
@@ -6369,22 +6256,22 @@
         <v>27.8</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y48" s="24">
         <v>141</v>
@@ -6396,36 +6283,33 @@
         <v>63.93</v>
       </c>
       <c r="AB48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG48" s="23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH48" s="24">
         <v>348.79</v>
       </c>
-      <c r="AI48" s="24">
-        <v>348.79</v>
-      </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C49" s="16">
         <v>18682.2201124405</v>
@@ -6449,10 +6333,10 @@
         <v>23.374300000000002</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L49" s="16">
         <v>289.25900000000001</v>
@@ -6461,10 +6345,10 @@
         <v>8.9688999999999997</v>
       </c>
       <c r="N49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P49" s="17">
         <v>142.4451</v>
@@ -6473,25 +6357,25 @@
         <v>13.144</v>
       </c>
       <c r="R49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T49" s="16">
         <v>879</v>
       </c>
       <c r="U49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y49" s="17">
         <v>1340.1410000000001</v>
@@ -6500,39 +6384,36 @@
         <v>17.600000000000001</v>
       </c>
       <c r="AA49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC49" s="16">
         <v>3376</v>
       </c>
       <c r="AD49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG49" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH49" s="17">
         <v>7139.4</v>
       </c>
-      <c r="AI49" s="17">
-        <v>7139.4</v>
-      </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C50" s="16">
         <v>1602.9056431367901</v>
@@ -6556,25 +6437,25 @@
         <v>21.561599999999999</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q50" s="16">
         <v>2.1779999999999999</v>
@@ -6583,22 +6464,22 @@
         <v>1.214</v>
       </c>
       <c r="S50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y50" s="17">
         <v>102</v>
@@ -6610,36 +6491,33 @@
         <v>0.1</v>
       </c>
       <c r="AB50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG50" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH50" s="17">
         <v>392.3</v>
       </c>
-      <c r="AI50" s="17">
-        <v>392.3</v>
-      </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C51" s="13">
         <v>27634.453735232299</v>
@@ -6663,25 +6541,25 @@
         <v>2.8E-3</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q51" s="13">
         <v>107.852</v>
@@ -6690,7 +6568,7 @@
         <v>0.02</v>
       </c>
       <c r="S51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T51" s="13">
         <v>1584.0450000000001</v>
@@ -6699,13 +6577,13 @@
         <v>8.3740000000000006</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y51" s="14">
         <v>3665</v>
@@ -6714,10 +6592,10 @@
         <v>107.16</v>
       </c>
       <c r="AA51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC51" s="13">
         <v>7293</v>
@@ -6726,27 +6604,24 @@
         <v>19.72</v>
       </c>
       <c r="AE51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG51" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH51" s="14">
         <v>12820</v>
       </c>
-      <c r="AI51" s="14">
-        <v>12820</v>
-      </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C52" s="16">
         <v>5898.5668716233304</v>
@@ -6767,52 +6642,52 @@
         <v>19.307596206665</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q52" s="16">
         <v>13.363</v>
       </c>
       <c r="R52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T52" s="16">
         <v>368.22</v>
       </c>
       <c r="U52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y52" s="17">
         <v>307</v>
@@ -6821,39 +6696,36 @@
         <v>20.59</v>
       </c>
       <c r="AA52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC52" s="16">
         <v>1493.43</v>
       </c>
       <c r="AD52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG52" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH52" s="17">
         <v>970.64</v>
       </c>
-      <c r="AI52" s="17">
-        <v>970.64</v>
-      </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C53" s="16">
         <v>671.98586544893601</v>
@@ -6874,52 +6746,52 @@
         <v>15.168089866368501</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q53" s="16">
         <v>1.169</v>
       </c>
       <c r="R53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y53" s="17">
         <v>28</v>
@@ -6928,39 +6800,36 @@
         <v>1.89</v>
       </c>
       <c r="AA53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG53" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH53" s="17">
         <v>24.78</v>
       </c>
-      <c r="AI53" s="17">
-        <v>24.78</v>
-      </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C54" s="16">
         <v>1400.85162892122</v>
@@ -6981,52 +6850,52 @@
         <v>8.3587713240205392</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L54" s="16">
         <v>7.7914000000000003</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q54" s="16">
         <v>2.5830000000000002</v>
       </c>
       <c r="R54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T54" s="16">
         <v>92</v>
       </c>
       <c r="U54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y54" s="17">
         <v>98</v>
@@ -7035,39 +6904,36 @@
         <v>3.62</v>
       </c>
       <c r="AA54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC54" s="16">
         <v>124</v>
       </c>
       <c r="AD54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH54" s="17">
         <v>98</v>
       </c>
-      <c r="AI54" s="17">
-        <v>98</v>
-      </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C55" s="16">
         <v>10731.1752892639</v>
@@ -7091,34 +6957,34 @@
         <v>0.17979999999999999</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q55" s="16">
         <v>69.542000000000002</v>
       </c>
       <c r="R55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T55" s="16">
         <v>315.3</v>
@@ -7127,13 +6993,13 @@
         <v>40</v>
       </c>
       <c r="V55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y55" s="17">
         <v>459.3</v>
@@ -7142,39 +7008,36 @@
         <v>31.7</v>
       </c>
       <c r="AA55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC55" s="16">
         <v>1702.17</v>
       </c>
       <c r="AD55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG55" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH55" s="17">
         <v>1134.77</v>
       </c>
-      <c r="AI55" s="17">
-        <v>1134.77</v>
-      </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C56" s="16">
         <v>4684.6902891337504</v>
@@ -7198,49 +7061,49 @@
         <v>24.348299999999998</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L56" s="16">
         <v>102.2627</v>
       </c>
       <c r="M56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N56" s="16">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P56" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q56" s="16">
         <v>27.041</v>
       </c>
       <c r="R56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y56" s="17">
         <v>352.6</v>
@@ -7249,146 +7112,140 @@
         <v>46.09</v>
       </c>
       <c r="AA56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG56" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH56" s="17">
         <v>522.75</v>
       </c>
-      <c r="AI56" s="17">
-        <v>522.75</v>
-      </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="23">
+        <v>141</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="16">
         <v>115413.38499482399</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="16">
         <v>90815.671057883301</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="16">
         <v>24597.7139369406</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="16">
         <v>55.400001525878899</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="16">
         <v>83.900001525630898</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="17">
         <v>24.576909231904601</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="16">
         <v>2.2988</v>
       </c>
-      <c r="J57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" s="23">
+      <c r="J57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L57" s="16">
         <v>15.5686</v>
       </c>
-      <c r="M57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N57" s="23">
+      <c r="M57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" s="16">
         <v>4.0702999999999996</v>
       </c>
-      <c r="O57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="P57" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q57" s="23">
+      <c r="O57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="16">
         <v>28.428000000000001</v>
       </c>
-      <c r="R57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="S57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="T57" s="23">
+      <c r="R57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T57" s="16">
         <v>2110.8000000000002</v>
       </c>
-      <c r="U57" s="23">
+      <c r="U57" s="16">
         <v>10.335000000000001</v>
       </c>
-      <c r="V57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="W57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="X57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y57" s="24">
+      <c r="V57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="W57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y57" s="17">
         <v>11001.7</v>
       </c>
-      <c r="Z57" s="23">
+      <c r="Z57" s="16">
         <v>41.99</v>
       </c>
-      <c r="AA57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC57" s="23">
+      <c r="AA57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC57" s="16">
         <v>8229.1200000000008</v>
       </c>
-      <c r="AD57" s="23">
+      <c r="AD57" s="16">
         <v>21.12</v>
       </c>
-      <c r="AE57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG57" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH57" s="24">
+      <c r="AE57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH57" s="17">
         <v>27042.32</v>
       </c>
-      <c r="AI57" s="24">
-        <v>27042.32</v>
-      </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C58" s="16">
         <v>11565.9237927063</v>
@@ -7412,22 +7269,22 @@
         <v>102.8599</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N58" s="16">
         <v>9.5899999999999999E-2</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P58" s="17">
         <v>43.481000000000002</v>
@@ -7439,22 +7296,22 @@
         <v>158.69999999999999</v>
       </c>
       <c r="S58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U58" s="16">
         <v>25</v>
       </c>
       <c r="V58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y58" s="17">
         <v>968.7</v>
@@ -7463,39 +7320,36 @@
         <v>290.64999999999998</v>
       </c>
       <c r="AA58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD58" s="16">
         <v>110.3</v>
       </c>
       <c r="AE58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG58" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH58" s="17">
         <v>3733.97</v>
       </c>
-      <c r="AI58" s="17">
-        <v>3733.97</v>
-      </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C59" s="16">
         <v>2157.3732148099798</v>
@@ -7519,34 +7373,34 @@
         <v>1.4298999999999999</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N59" s="16">
         <v>7.6E-3</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q59" s="16">
         <v>4.3719999999999999</v>
       </c>
       <c r="R59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T59" s="16">
         <v>60.89</v>
@@ -7555,13 +7409,13 @@
         <v>33.799999999999997</v>
       </c>
       <c r="V59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y59" s="17">
         <v>138.69999999999999</v>
@@ -7570,10 +7424,10 @@
         <v>6.23</v>
       </c>
       <c r="AA59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC59" s="16">
         <v>238.12</v>
@@ -7582,27 +7436,24 @@
         <v>3.94</v>
       </c>
       <c r="AE59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG59" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH59" s="17">
         <v>80</v>
       </c>
-      <c r="AI59" s="17">
-        <v>80</v>
-      </c>
     </row>
-    <row r="60" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C60" s="13">
         <v>4558.7767204021902</v>
@@ -7626,49 +7477,49 @@
         <v>14.609</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N60" s="13">
         <v>1.8996</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q60" s="13">
         <v>6.202</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T60" s="13">
         <v>66.599999999999994</v>
       </c>
       <c r="U60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y60" s="14">
         <v>172.33</v>
@@ -7677,37 +7528,34 @@
         <v>14.84</v>
       </c>
       <c r="AA60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC60" s="13">
         <v>204</v>
       </c>
       <c r="AD60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG60" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH60" s="14">
         <v>510.63</v>
       </c>
-      <c r="AI60" s="14">
-        <v>510.63</v>
-      </c>
     </row>
-    <row r="61" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="19" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C61" s="20">
         <v>214866.66622080599</v>
@@ -7731,10 +7579,10 @@
         <v>253.7731</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L61" s="20">
         <v>414.88170000000002</v>
@@ -7746,7 +7594,7 @@
         <v>6.1322999999999999</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P61" s="21">
         <v>213.30090000000001</v>
@@ -7758,7 +7606,7 @@
         <v>187.73400000000001</v>
       </c>
       <c r="S61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T61" s="20">
         <v>5511.8549999999996</v>
@@ -7767,13 +7615,13 @@
         <v>118.40900000000001</v>
       </c>
       <c r="V61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y61" s="21">
         <v>19414.631000000001</v>
@@ -7785,7 +7633,7 @@
         <v>64.03</v>
       </c>
       <c r="AB61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC61" s="20">
         <v>22772.3</v>
@@ -7794,25 +7642,22 @@
         <v>156.38</v>
       </c>
       <c r="AE61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG61" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH61" s="21">
         <v>56686.86</v>
       </c>
-      <c r="AI61" s="21">
-        <v>56686.86</v>
-      </c>
     </row>
-    <row r="62" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="26"/>
       <c r="B62" s="27" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C62" s="28">
         <v>762151.55757469905</v>
@@ -7839,7 +7684,7 @@
         <v>127.51390000000001</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L62" s="28">
         <v>850.78150000000005</v>
@@ -7851,7 +7696,7 @@
         <v>231.01840000000001</v>
       </c>
       <c r="O62" s="28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P62" s="29">
         <v>883.41279999999995</v>
@@ -7872,7 +7717,7 @@
         <v>1652.212</v>
       </c>
       <c r="V62" s="28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W62" s="28">
         <v>1940</v>
@@ -7899,7 +7744,7 @@
         <v>2962.45</v>
       </c>
       <c r="AE62" s="28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF62" s="28">
         <v>10740.25</v>
@@ -7910,14 +7755,11 @@
       <c r="AH62" s="29">
         <v>620439.43000000005</v>
       </c>
-      <c r="AI62" s="29">
-        <v>620439.43000000005</v>
-      </c>
     </row>
-    <row r="63" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="26"/>
       <c r="B63" s="30" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C63" s="31">
         <v>6288166.5991543503</v>
@@ -8015,14 +7857,11 @@
       <c r="AH63" s="32">
         <v>15795377.34</v>
       </c>
-      <c r="AI63" s="32">
-        <v>15795377.34</v>
-      </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="33"/>
       <c r="B64" s="34" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C64" s="28">
         <v>637166.85136061197</v>
@@ -8055,13 +7894,13 @@
         <v>120.246</v>
       </c>
       <c r="M64" s="28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N64" s="28">
         <v>2193.1732999999999</v>
       </c>
       <c r="O64" s="28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P64" s="29">
         <v>951.19949999999994</v>
@@ -8109,7 +7948,7 @@
         <v>81558.509999999995</v>
       </c>
       <c r="AE64" s="28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF64" s="28">
         <v>34928.15</v>
@@ -8120,14 +7959,11 @@
       <c r="AH64" s="29">
         <v>640463.35999999999</v>
       </c>
-      <c r="AI64" s="29">
-        <v>640463.35999999999</v>
-      </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="33"/>
       <c r="B65" s="27" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C65" s="35">
         <v>4122261.4019217398</v>
@@ -8225,14 +8061,11 @@
       <c r="AH65" s="36">
         <v>8044165.9299999997</v>
       </c>
-      <c r="AI65" s="36">
-        <v>8044165.9299999997</v>
-      </c>
     </row>
-    <row r="66" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="33"/>
       <c r="B66" s="37" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C66" s="38">
         <v>7050318.15672905</v>
@@ -8330,14 +8163,11 @@
       <c r="AH66" s="39">
         <v>16415816.77</v>
       </c>
-      <c r="AI66" s="39">
-        <v>16415816.77</v>
-      </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="33"/>
       <c r="B67" s="40" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C67" s="41">
         <v>332841.96450169903</v>
@@ -8364,7 +8194,7 @@
         <v>126.6771</v>
       </c>
       <c r="K67" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L67" s="41">
         <v>255.55099999999999</v>
@@ -8376,7 +8206,7 @@
         <v>31.129100000000001</v>
       </c>
       <c r="O67" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P67" s="42">
         <v>95.8048</v>
@@ -8397,13 +8227,13 @@
         <v>1110.883</v>
       </c>
       <c r="V67" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W67" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X67" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y67" s="42">
         <v>76147.983999999997</v>
@@ -8424,25 +8254,22 @@
         <v>1910.93</v>
       </c>
       <c r="AE67" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF67" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG67" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH67" s="42">
         <v>246689.36</v>
       </c>
-      <c r="AI67" s="42">
-        <v>246689.36</v>
-      </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="33"/>
       <c r="B68" s="27" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C68" s="35">
         <v>414975.52065845701</v>
@@ -8469,7 +8296,7 @@
         <v>126.6771</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L68" s="35">
         <v>572.32129999999995</v>
@@ -8481,7 +8308,7 @@
         <v>60.953499999999998</v>
       </c>
       <c r="O68" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P68" s="36">
         <v>309.10039999999998</v>
@@ -8493,7 +8320,7 @@
         <v>3229.8090000000002</v>
       </c>
       <c r="S68" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T68" s="35">
         <v>11125.686</v>
@@ -8502,10 +8329,10 @@
         <v>405.80900000000003</v>
       </c>
       <c r="V68" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W68" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X68" s="35">
         <v>464</v>
@@ -8520,7 +8347,7 @@
         <v>9466</v>
       </c>
       <c r="AB68" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC68" s="35">
         <v>49743.54</v>
@@ -8529,10 +8356,10 @@
         <v>638.05999999999995</v>
       </c>
       <c r="AE68" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF68" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG68" s="35">
         <v>422.45</v>
@@ -8540,14 +8367,11 @@
       <c r="AH68" s="36">
         <v>323820.25</v>
       </c>
-      <c r="AI68" s="36">
-        <v>323820.25</v>
-      </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="33"/>
       <c r="B69" s="27" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C69" s="35">
         <v>88769.006229405306</v>
@@ -8574,7 +8398,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K69" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L69" s="35">
         <v>242.8999</v>
@@ -8586,10 +8410,10 @@
         <v>17.940000000000001</v>
       </c>
       <c r="O69" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P69" s="36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q69" s="35">
         <v>261.03899999999999</v>
@@ -8607,13 +8431,13 @@
         <v>258.42399999999998</v>
       </c>
       <c r="V69" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W69" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X69" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y69" s="36">
         <v>2510.7959999999998</v>
@@ -8634,25 +8458,22 @@
         <v>586.48</v>
       </c>
       <c r="AE69" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF69" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG69" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH69" s="36">
         <v>8063.87</v>
       </c>
-      <c r="AI69" s="36">
-        <v>8063.87</v>
-      </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="33"/>
       <c r="B70" s="27" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C70" s="35">
         <v>68545.633128824906</v>
@@ -8676,10 +8497,10 @@
         <v>157.15610000000001</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L70" s="35">
         <v>256.45940000000002</v>
@@ -8691,10 +8512,10 @@
         <v>3.0598999999999998</v>
       </c>
       <c r="O70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P70" s="36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q70" s="35">
         <v>94.558999999999997</v>
@@ -8703,7 +8524,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T70" s="35">
         <v>8124.6220000000003</v>
@@ -8712,13 +8533,13 @@
         <v>74.194999999999993</v>
       </c>
       <c r="V70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y70" s="36">
         <v>4534.5020000000004</v>
@@ -8730,7 +8551,7 @@
         <v>8.9</v>
       </c>
       <c r="AB70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC70" s="35">
         <v>33869.589999999997</v>
@@ -8739,25 +8560,22 @@
         <v>218.6</v>
       </c>
       <c r="AE70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG70" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH70" s="36">
         <v>10678.64</v>
       </c>
-      <c r="AI70" s="36">
-        <v>10678.64</v>
-      </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="33"/>
       <c r="B71" s="27" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C71" s="35">
         <v>214866.66622080599</v>
@@ -8781,10 +8599,10 @@
         <v>253.7731</v>
       </c>
       <c r="J71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L71" s="35">
         <v>414.88170000000002</v>
@@ -8796,7 +8614,7 @@
         <v>6.1322999999999999</v>
       </c>
       <c r="O71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P71" s="36">
         <v>213.30090000000001</v>
@@ -8808,7 +8626,7 @@
         <v>187.73400000000001</v>
       </c>
       <c r="S71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T71" s="35">
         <v>5511.8549999999996</v>
@@ -8817,13 +8635,13 @@
         <v>118.40900000000001</v>
       </c>
       <c r="V71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y71" s="36">
         <v>19414.631000000001</v>
@@ -8835,7 +8653,7 @@
         <v>64.03</v>
       </c>
       <c r="AB71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC71" s="35">
         <v>22772.3</v>
@@ -8844,25 +8662,22 @@
         <v>156.38</v>
       </c>
       <c r="AE71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG71" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH71" s="36">
         <v>56686.86</v>
       </c>
-      <c r="AI71" s="36">
-        <v>56686.86</v>
-      </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="33"/>
       <c r="B72" s="27" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C72" s="35">
         <v>151914.65045794201</v>
@@ -8886,13 +8701,13 @@
         <v>38.732300000000002</v>
       </c>
       <c r="J72" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L72" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M72" s="35">
         <v>1.11E-2</v>
@@ -8901,7 +8716,7 @@
         <v>4.6445999999999996</v>
       </c>
       <c r="O72" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P72" s="36">
         <v>95.718500000000006</v>
@@ -8922,13 +8737,13 @@
         <v>672.404</v>
       </c>
       <c r="V72" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W72" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X72" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y72" s="36">
         <v>3495.48</v>
@@ -8949,25 +8764,22 @@
         <v>561.08000000000004</v>
       </c>
       <c r="AE72" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF72" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG72" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH72" s="36">
         <v>10143.93</v>
       </c>
-      <c r="AI72" s="36">
-        <v>10143.93</v>
-      </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" s="33"/>
       <c r="B73" s="27" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C73" s="35">
         <v>155231.83675277801</v>
@@ -8994,7 +8806,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K73" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L73" s="35">
         <v>14.2094</v>
@@ -9006,7 +8818,7 @@
         <v>163.97790000000001</v>
       </c>
       <c r="O73" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P73" s="36">
         <v>574.30709999999999</v>
@@ -9018,7 +8830,7 @@
         <v>2540.4380000000001</v>
       </c>
       <c r="S73" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T73" s="35">
         <v>14560.128000000001</v>
@@ -9027,7 +8839,7 @@
         <v>754.76400000000001</v>
       </c>
       <c r="V73" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W73" s="35">
         <v>1940</v>
@@ -9045,7 +8857,7 @@
         <v>345.59</v>
       </c>
       <c r="AB73" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC73" s="35">
         <v>55449.51</v>
@@ -9054,7 +8866,7 @@
         <v>1858.06</v>
       </c>
       <c r="AE73" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF73" s="35">
         <v>10740.25</v>
@@ -9065,14 +8877,11 @@
       <c r="AH73" s="36">
         <v>209243.69</v>
       </c>
-      <c r="AI73" s="36">
-        <v>209243.69</v>
-      </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" s="33"/>
       <c r="B74" s="27" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C74" s="35">
         <v>99141.392790670507</v>
@@ -9096,25 +8905,25 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K74" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L74" s="35">
         <v>165.23099999999999</v>
       </c>
       <c r="M74" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N74" s="35">
         <v>46.453499999999998</v>
       </c>
       <c r="O74" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P74" s="36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q74" s="35">
         <v>1369.51</v>
@@ -9123,7 +8932,7 @@
         <v>1694.4</v>
       </c>
       <c r="S74" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T74" s="35">
         <v>1599.5329999999999</v>
@@ -9132,10 +8941,10 @@
         <v>7.4</v>
       </c>
       <c r="V74" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W74" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X74" s="35">
         <v>464</v>
@@ -9150,7 +8959,7 @@
         <v>5211.33</v>
       </c>
       <c r="AB74" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC74" s="35">
         <v>963.64</v>
@@ -9159,10 +8968,10 @@
         <v>40.06</v>
       </c>
       <c r="AE74" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF74" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG74" s="35">
         <v>422.45</v>
@@ -9170,14 +8979,11 @@
       <c r="AH74" s="36">
         <v>165180.63</v>
       </c>
-      <c r="AI74" s="36">
-        <v>165180.63</v>
-      </c>
     </row>
-    <row r="75" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="33"/>
       <c r="B75" s="37" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C75" s="38">
         <v>28208.5364636255</v>
@@ -9198,25 +9004,25 @@
         <v>6.4896729601421503</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L75" s="38">
         <v>13.5595</v>
       </c>
       <c r="M75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N75" s="38">
         <v>140.85390000000001</v>
       </c>
       <c r="O75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P75" s="39">
         <v>574.30709999999999</v>
@@ -9228,7 +9034,7 @@
         <v>27.8</v>
       </c>
       <c r="S75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T75" s="38">
         <v>5935.1890000000003</v>
@@ -9237,13 +9043,13 @@
         <v>65</v>
       </c>
       <c r="V75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y75" s="39">
         <v>2953.1509999999998</v>
@@ -9255,7 +9061,7 @@
         <v>63.93</v>
       </c>
       <c r="AB75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC75" s="38">
         <v>17945.46</v>
@@ -9264,25 +9070,22 @@
         <v>261.45999999999998</v>
       </c>
       <c r="AE75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG75" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH75" s="39">
         <v>6019.26</v>
       </c>
-      <c r="AI75" s="39">
-        <v>6956.33</v>
-      </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="33"/>
       <c r="B76" s="40" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C76" s="41">
         <v>638985.37233523501</v>
@@ -9321,7 +9124,7 @@
         <v>72.147199999999998</v>
       </c>
       <c r="O76" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P76" s="42">
         <v>66.674099999999996</v>
@@ -9345,7 +9148,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="W76" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X76" s="41">
         <v>1296</v>
@@ -9372,7 +9175,7 @@
         <v>0.01</v>
       </c>
       <c r="AF76" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG76" s="41">
         <v>1198.8</v>
@@ -9380,14 +9183,11 @@
       <c r="AH76" s="42">
         <v>841852.34</v>
       </c>
-      <c r="AI76" s="42">
-        <v>841852.34</v>
-      </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="33"/>
       <c r="B77" s="27" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C77" s="35">
         <v>430441.55063621502</v>
@@ -9420,13 +9220,13 @@
         <v>102.7152</v>
       </c>
       <c r="M77" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N77" s="35">
         <v>1212.7019</v>
       </c>
       <c r="O77" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P77" s="36">
         <v>951.00469999999996</v>
@@ -9474,7 +9274,7 @@
         <v>71865.399999999994</v>
       </c>
       <c r="AE77" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF77" s="35">
         <v>24063.88</v>
@@ -9485,14 +9285,11 @@
       <c r="AH77" s="36">
         <v>310588.21000000002</v>
       </c>
-      <c r="AI77" s="36">
-        <v>310588.21000000002</v>
-      </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="33"/>
       <c r="B78" s="27" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C78" s="35">
         <v>445279.88864749501</v>
@@ -9531,7 +9328,7 @@
         <v>76.829400000000007</v>
       </c>
       <c r="O78" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P78" s="36">
         <v>27.293299999999999</v>
@@ -9590,14 +9387,11 @@
       <c r="AH78" s="36">
         <v>1016408.92</v>
       </c>
-      <c r="AI78" s="36">
-        <v>1016408.92</v>
-      </c>
     </row>
-    <row r="79" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="33"/>
       <c r="B79" s="37" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C79" s="38">
         <v>1369599.6077361701</v>
@@ -9636,7 +9430,7 @@
         <v>827.327</v>
       </c>
       <c r="O79" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P79" s="39">
         <v>21.773199999999999</v>
@@ -9695,14 +9489,11 @@
       <c r="AH79" s="39">
         <v>5757357.8399999999</v>
       </c>
-      <c r="AI79" s="39">
-        <v>5757357.8399999999</v>
-      </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="33"/>
       <c r="B80" s="40" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C80" s="41">
         <v>191364.18293044699</v>
@@ -9726,25 +9517,25 @@
         <v>12.855700000000001</v>
       </c>
       <c r="J80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L80" s="41">
         <v>15.5686</v>
       </c>
       <c r="M80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N80" s="41">
         <v>32.009799999999998</v>
       </c>
       <c r="O80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P80" s="42" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q80" s="41">
         <v>592.85299999999995</v>
@@ -9753,7 +9544,7 @@
         <v>73.3</v>
       </c>
       <c r="S80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T80" s="41">
         <v>6739.4059999999999</v>
@@ -9762,13 +9553,13 @@
         <v>76.734999999999999</v>
       </c>
       <c r="V80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y80" s="42">
         <v>50016.881999999998</v>
@@ -9780,7 +9571,7 @@
         <v>212.03</v>
       </c>
       <c r="AB80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC80" s="41">
         <v>24236.19</v>
@@ -9789,25 +9580,22 @@
         <v>231.84</v>
       </c>
       <c r="AE80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG80" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH80" s="42">
         <v>149564.38</v>
       </c>
-      <c r="AI80" s="42">
-        <v>149564.38</v>
-      </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="33"/>
       <c r="B81" s="27" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C81" s="35">
         <v>485546.86891431903</v>
@@ -9905,14 +9693,11 @@
       <c r="AH81" s="36">
         <v>2004169.31</v>
       </c>
-      <c r="AI81" s="36">
-        <v>2004169.31</v>
-      </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="33"/>
       <c r="B82" s="27" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C82" s="35">
         <v>570787.37464425201</v>
@@ -9939,7 +9724,7 @@
         <v>127.51390000000001</v>
       </c>
       <c r="K82" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L82" s="35">
         <v>835.21289999999999</v>
@@ -9951,7 +9736,7 @@
         <v>199.0086</v>
       </c>
       <c r="O82" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P82" s="36">
         <v>883.41279999999995</v>
@@ -9972,7 +9757,7 @@
         <v>1575.4770000000001</v>
       </c>
       <c r="V82" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W82" s="35">
         <v>1940</v>
@@ -9999,7 +9784,7 @@
         <v>2730.61</v>
       </c>
       <c r="AE82" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF82" s="35">
         <v>10740.25</v>
@@ -10010,14 +9795,11 @@
       <c r="AH82" s="36">
         <v>470875.05</v>
       </c>
-      <c r="AI82" s="36">
-        <v>470875.05</v>
-      </c>
     </row>
-    <row r="83" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="33"/>
       <c r="B83" s="37" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C83" s="38">
         <v>5802619.7302400302</v>
@@ -10115,14 +9897,11 @@
       <c r="AH83" s="39">
         <v>13791208.029999999</v>
       </c>
-      <c r="AI83" s="39">
-        <v>13791208.029999999</v>
-      </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="33"/>
       <c r="B84" s="40" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C84" s="41">
         <v>199800.23268097601</v>
@@ -10146,10 +9925,10 @@
         <v>267.81220000000002</v>
       </c>
       <c r="J84" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K84" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L84" s="41">
         <v>353.48820000000001</v>
@@ -10161,7 +9940,7 @@
         <v>144.43260000000001</v>
       </c>
       <c r="O84" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P84" s="42">
         <v>574.31240000000003</v>
@@ -10182,13 +9961,13 @@
         <v>695.92899999999997</v>
       </c>
       <c r="V84" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W84" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X84" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y84" s="42">
         <v>6480.9740000000002</v>
@@ -10200,7 +9979,7 @@
         <v>626.73</v>
       </c>
       <c r="AB84" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC84" s="41">
         <v>52754.559999999998</v>
@@ -10209,25 +9988,22 @@
         <v>540.20000000000005</v>
       </c>
       <c r="AE84" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF84" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG84" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH84" s="42">
         <v>14419.69</v>
       </c>
-      <c r="AI84" s="42">
-        <v>14419.69</v>
-      </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="33"/>
       <c r="B85" s="27" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C85" s="35">
         <v>93936.858463570999</v>
@@ -10251,22 +10027,22 @@
         <v>17.792100000000001</v>
       </c>
       <c r="J85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N85" s="35">
         <v>1.8325</v>
       </c>
       <c r="O85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P85" s="36">
         <v>31.816299999999998</v>
@@ -10278,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="S85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T85" s="35">
         <v>1822.9929999999999</v>
@@ -10287,13 +10063,13 @@
         <v>6.7050000000000001</v>
       </c>
       <c r="V85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y85" s="36">
         <v>10535.911</v>
@@ -10305,7 +10081,7 @@
         <v>1.17</v>
       </c>
       <c r="AB85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC85" s="35">
         <v>1806.61</v>
@@ -10314,25 +10090,22 @@
         <v>33.479999999999997</v>
       </c>
       <c r="AE85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG85" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH85" s="36">
         <v>28211.58</v>
       </c>
-      <c r="AI85" s="36">
-        <v>28211.58</v>
-      </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="33"/>
       <c r="B86" s="27" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C86" s="35">
         <v>500295.46852741501</v>
@@ -10359,7 +10132,7 @@
         <v>127.51390000000001</v>
       </c>
       <c r="K86" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L86" s="35">
         <v>497.29329999999999</v>
@@ -10371,7 +10144,7 @@
         <v>79.86</v>
       </c>
       <c r="O86" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P86" s="36">
         <v>309.10039999999998</v>
@@ -10392,10 +10165,10 @@
         <v>599.49800000000005</v>
       </c>
       <c r="V86" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W86" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X86" s="35">
         <v>464</v>
@@ -10419,10 +10192,10 @@
         <v>1580.48</v>
       </c>
       <c r="AE86" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF86" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG86" s="35">
         <v>422.45</v>
@@ -10430,14 +10203,11 @@
       <c r="AH86" s="36">
         <v>377789.47</v>
       </c>
-      <c r="AI86" s="36">
-        <v>377789.47</v>
-      </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="33"/>
       <c r="B87" s="27" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C87" s="35">
         <v>2522822.9010638301</v>
@@ -10497,7 +10267,7 @@
         <v>15242.346</v>
       </c>
       <c r="V87" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W87" s="35">
         <v>22777</v>
@@ -10524,7 +10294,7 @@
         <v>43630.48</v>
       </c>
       <c r="AE87" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF87" s="35">
         <v>138678.95000000001</v>
@@ -10535,14 +10305,11 @@
       <c r="AH87" s="36">
         <v>2369444.54</v>
       </c>
-      <c r="AI87" s="36">
-        <v>2369444.54</v>
-      </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="33"/>
       <c r="B88" s="27" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C88" s="35">
         <v>61950.326366309098</v>
@@ -10566,13 +10333,13 @@
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="J88" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K88" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L88" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M88" s="35">
         <v>3.5499999999999997E-2</v>
@@ -10581,10 +10348,10 @@
         <v>6.7257999999999996</v>
       </c>
       <c r="O88" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P88" s="36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q88" s="35">
         <v>6230.48</v>
@@ -10593,7 +10360,7 @@
         <v>2531.8609999999999</v>
       </c>
       <c r="S88" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T88" s="35">
         <v>1616.817</v>
@@ -10602,7 +10369,7 @@
         <v>356.78500000000003</v>
       </c>
       <c r="V88" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W88" s="35">
         <v>1940</v>
@@ -10620,7 +10387,7 @@
         <v>339.13</v>
       </c>
       <c r="AB88" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC88" s="35">
         <v>3694.91</v>
@@ -10629,7 +10396,7 @@
         <v>841.77</v>
       </c>
       <c r="AE88" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF88" s="35">
         <v>10740.25</v>
@@ -10640,14 +10407,11 @@
       <c r="AH88" s="36">
         <v>227800.14</v>
       </c>
-      <c r="AI88" s="36">
-        <v>227800.14</v>
-      </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="33"/>
       <c r="B89" s="27" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C89" s="35">
         <v>2462123.33962494</v>
@@ -10745,14 +10509,11 @@
       <c r="AH89" s="36">
         <v>7330707.3700000001</v>
       </c>
-      <c r="AI89" s="36">
-        <v>7330707.3700000001</v>
-      </c>
     </row>
-    <row r="90" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="33"/>
       <c r="B90" s="37" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C90" s="38">
         <v>1180898.57700191</v>
@@ -10791,7 +10552,7 @@
         <v>262.6687</v>
       </c>
       <c r="O90" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P90" s="39">
         <v>483.15839999999997</v>
@@ -10850,14 +10611,11 @@
       <c r="AH90" s="39">
         <v>6042844.6699999999</v>
       </c>
-      <c r="AI90" s="39">
-        <v>6042844.6699999999</v>
-      </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="33"/>
       <c r="B91" s="40" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C91" s="41">
         <v>271821.58946286701</v>
@@ -10884,7 +10642,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K91" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L91" s="41">
         <v>380.72289999999998</v>
@@ -10896,7 +10654,7 @@
         <v>189.01410000000001</v>
       </c>
       <c r="O91" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P91" s="42">
         <v>740.88139999999999</v>
@@ -10917,13 +10675,13 @@
         <v>884.91399999999999</v>
       </c>
       <c r="V91" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W91" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X91" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y91" s="42">
         <v>12384.056</v>
@@ -10935,7 +10693,7 @@
         <v>757.93</v>
       </c>
       <c r="AB91" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC91" s="41">
         <v>82997.47</v>
@@ -10944,25 +10702,22 @@
         <v>1080.1600000000001</v>
       </c>
       <c r="AE91" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF91" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG91" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH91" s="42">
         <v>33078.120000000003</v>
       </c>
-      <c r="AI91" s="42">
-        <v>33078.120000000003</v>
-      </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="33"/>
       <c r="B92" s="27" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C92" s="35">
         <v>316388.182864859</v>
@@ -10989,7 +10744,7 @@
         <v>0.34089999999999998</v>
       </c>
       <c r="K92" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L92" s="35">
         <v>37.020899999999997</v>
@@ -11001,7 +10756,7 @@
         <v>16.305099999999999</v>
       </c>
       <c r="O92" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P92" s="36">
         <v>476.69330000000002</v>
@@ -11013,7 +10768,7 @@
         <v>4.3789999999999996</v>
       </c>
       <c r="S92" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T92" s="35">
         <v>16494.718000000001</v>
@@ -11022,13 +10777,13 @@
         <v>217.898</v>
       </c>
       <c r="V92" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W92" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X92" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y92" s="36">
         <v>33263.326000000001</v>
@@ -11040,7 +10795,7 @@
         <v>7.05</v>
       </c>
       <c r="AB92" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC92" s="35">
         <v>66256.179999999993</v>
@@ -11049,25 +10804,22 @@
         <v>393.32</v>
       </c>
       <c r="AE92" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF92" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG92" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH92" s="36">
         <v>118158.08</v>
       </c>
-      <c r="AI92" s="36">
-        <v>118158.08</v>
-      </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="33"/>
       <c r="B93" s="27" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C93" s="35">
         <v>3486.2115603369798</v>
@@ -11091,25 +10843,25 @@
         <v>16.410499999999999</v>
       </c>
       <c r="J93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L93" s="35">
         <v>13.5595</v>
       </c>
       <c r="M93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N93" s="35">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="O93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P93" s="36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q93" s="35">
         <v>96.361999999999995</v>
@@ -11118,7 +10870,7 @@
         <v>44.43</v>
       </c>
       <c r="S93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T93" s="35">
         <v>64.507999999999996</v>
@@ -11127,13 +10879,13 @@
         <v>90.65</v>
       </c>
       <c r="V93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y93" s="36">
         <v>962.005</v>
@@ -11145,7 +10897,7 @@
         <v>87.92</v>
       </c>
       <c r="AB93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC93" s="35">
         <v>121.89</v>
@@ -11154,25 +10906,22 @@
         <v>409</v>
       </c>
       <c r="AE93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG93" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH93" s="36">
         <v>3143.35</v>
       </c>
-      <c r="AI93" s="36">
-        <v>3143.35</v>
-      </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="33"/>
       <c r="B94" s="27" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C94" s="35">
         <v>52252.4403313152</v>
@@ -11196,13 +10945,13 @@
         <v>43.866399999999999</v>
       </c>
       <c r="J94" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K94" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L94" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M94" s="35">
         <v>7.7809999999999997</v>
@@ -11211,7 +10960,7 @@
         <v>196.09299999999999</v>
       </c>
       <c r="O94" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P94" s="36">
         <v>5.9183000000000003</v>
@@ -11235,10 +10984,10 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="W94" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X94" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y94" s="36">
         <v>37634.775000000001</v>
@@ -11262,22 +11011,19 @@
         <v>0.01</v>
       </c>
       <c r="AF94" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG94" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH94" s="36">
         <v>145086.9</v>
       </c>
-      <c r="AI94" s="36">
-        <v>145086.9</v>
-      </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="33"/>
       <c r="B95" s="27" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C95" s="35">
         <v>132470.93971391401</v>
@@ -11301,10 +11047,10 @@
         <v>287.56319999999999</v>
       </c>
       <c r="J95" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K95" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L95" s="35">
         <v>359.37200000000001</v>
@@ -11316,7 +11062,7 @@
         <v>1.5434000000000001</v>
       </c>
       <c r="O95" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P95" s="36">
         <v>5.3E-3</v>
@@ -11337,13 +11083,13 @@
         <v>694.73500000000001</v>
       </c>
       <c r="V95" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W95" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X95" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y95" s="36">
         <v>4793.174</v>
@@ -11355,7 +11101,7 @@
         <v>617.94000000000005</v>
       </c>
       <c r="AB95" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC95" s="35">
         <v>40137.97</v>
@@ -11364,25 +11110,22 @@
         <v>920.56</v>
       </c>
       <c r="AE95" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF95" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG95" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH95" s="36">
         <v>11099.06</v>
       </c>
-      <c r="AI95" s="36">
-        <v>11099.06</v>
-      </c>
     </row>
-    <row r="96" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="33"/>
       <c r="B96" s="37" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C96" s="38">
         <v>187035.46156190499</v>
@@ -11433,7 +11176,7 @@
         <v>814.17399999999998</v>
       </c>
       <c r="S96" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T96" s="38">
         <v>38103.203999999998</v>
@@ -11442,7 +11185,7 @@
         <v>388.07799999999997</v>
       </c>
       <c r="V96" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W96" s="38">
         <v>407.5</v>
@@ -11460,7 +11203,7 @@
         <v>1883.5</v>
       </c>
       <c r="AB96" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC96" s="38">
         <v>150771.72</v>
@@ -11469,25 +11212,22 @@
         <v>832.52</v>
       </c>
       <c r="AE96" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF96" s="38">
         <v>2210.11</v>
       </c>
       <c r="AG96" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH96" s="39">
         <v>220029.21</v>
       </c>
-      <c r="AI96" s="39">
-        <v>220029.21</v>
-      </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="33"/>
       <c r="B97" s="40" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C97" s="41">
         <v>451958.15061388002</v>
@@ -11514,7 +11254,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K97" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L97" s="41">
         <v>428.55689999999998</v>
@@ -11526,7 +11266,7 @@
         <v>197.77950000000001</v>
       </c>
       <c r="O97" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P97" s="42">
         <v>812.47069999999997</v>
@@ -11547,13 +11287,13 @@
         <v>1162.818</v>
       </c>
       <c r="V97" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W97" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X97" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Y97" s="42">
         <v>37456.309000000001</v>
@@ -11574,25 +11314,22 @@
         <v>1566.15</v>
       </c>
       <c r="AE97" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF97" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG97" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AH97" s="42">
         <v>103676.65</v>
       </c>
-      <c r="AI97" s="42">
-        <v>103676.65</v>
-      </c>
     </row>
-    <row r="98" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="33"/>
       <c r="B98" s="37" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C98" s="38">
         <v>697204.12000443495</v>
@@ -11619,7 +11356,7 @@
         <v>8.2035999999999998</v>
       </c>
       <c r="K98" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L98" s="38">
         <v>655.28880000000004</v>
@@ -11652,7 +11389,7 @@
         <v>2157.4090000000001</v>
       </c>
       <c r="V98" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W98" s="38">
         <v>2162</v>
@@ -11679,7 +11416,7 @@
         <v>8535.74</v>
       </c>
       <c r="AE98" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF98" s="38">
         <v>16865</v>
@@ -11690,11 +11427,8 @@
       <c r="AH98" s="39">
         <v>699782.07</v>
       </c>
-      <c r="AI98" s="39">
-        <v>699782.07</v>
-      </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" s="43"/>
       <c r="B99" s="44"/>
       <c r="C99" s="28"/>
@@ -11729,11 +11463,10 @@
       <c r="AF99" s="28"/>
       <c r="AG99" s="28"/>
       <c r="AH99" s="28"/>
-      <c r="AI99" s="28"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C100" s="45"/>
       <c r="D100" s="45"/>
@@ -11767,11 +11500,10 @@
       <c r="AF100" s="45"/>
       <c r="AG100" s="45"/>
       <c r="AH100" s="45"/>
-      <c r="AI100" s="45"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C101" s="45"/>
       <c r="D101" s="45"/>
@@ -11805,11 +11537,10 @@
       <c r="AF101" s="45"/>
       <c r="AG101" s="45"/>
       <c r="AH101" s="45"/>
-      <c r="AI101" s="45"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
@@ -11843,11 +11574,10 @@
       <c r="AF102" s="45"/>
       <c r="AG102" s="45"/>
       <c r="AH102" s="45"/>
-      <c r="AI102" s="45"/>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
@@ -11881,11 +11611,10 @@
       <c r="AF103" s="45"/>
       <c r="AG103" s="45"/>
       <c r="AH103" s="45"/>
-      <c r="AI103" s="45"/>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
@@ -11919,11 +11648,10 @@
       <c r="AF104" s="45"/>
       <c r="AG104" s="45"/>
       <c r="AH104" s="45"/>
-      <c r="AI104" s="45"/>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
@@ -11957,9 +11685,8 @@
       <c r="AF105" s="45"/>
       <c r="AG105" s="45"/>
       <c r="AH105" s="45"/>
-      <c r="AI105" s="45"/>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -11992,11 +11719,10 @@
       <c r="AF106" s="45"/>
       <c r="AG106" s="45"/>
       <c r="AH106" s="45"/>
-      <c r="AI106" s="45"/>
     </row>
-    <row r="107" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="46" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
@@ -12030,9 +11756,8 @@
       <c r="AF107" s="45"/>
       <c r="AG107" s="45"/>
       <c r="AH107" s="45"/>
-      <c r="AI107" s="45"/>
     </row>
-    <row r="108" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="46"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
@@ -12066,11 +11791,10 @@
       <c r="AF108" s="45"/>
       <c r="AG108" s="45"/>
       <c r="AH108" s="45"/>
-      <c r="AI108" s="45"/>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -12104,11 +11828,10 @@
       <c r="AF109" s="45"/>
       <c r="AG109" s="45"/>
       <c r="AH109" s="45"/>
-      <c r="AI109" s="45"/>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -12142,9 +11865,8 @@
       <c r="AF110" s="45"/>
       <c r="AG110" s="45"/>
       <c r="AH110" s="45"/>
-      <c r="AI110" s="45"/>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
@@ -12178,11 +11900,10 @@
       <c r="AF111" s="45"/>
       <c r="AG111" s="45"/>
       <c r="AH111" s="45"/>
-      <c r="AI111" s="45"/>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -12216,11 +11937,10 @@
       <c r="AF112" s="45"/>
       <c r="AG112" s="45"/>
       <c r="AH112" s="45"/>
-      <c r="AI112" s="45"/>
     </row>
-    <row r="113" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
@@ -12254,9 +11974,8 @@
       <c r="AF113" s="45"/>
       <c r="AG113" s="45"/>
       <c r="AH113" s="45"/>
-      <c r="AI113" s="45"/>
     </row>
-    <row r="114" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
@@ -12290,15 +12009,14 @@
       <c r="AF114" s="45"/>
       <c r="AG114" s="45"/>
       <c r="AH114" s="45"/>
-      <c r="AI114" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{003A5444-ED7B-4839-9A36-9F625581DB2B}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D872F694-5CC0-4D4C-AFC3-D49CD7ECFFA7}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{2F293A77-B407-4A22-9CDD-1A8B48AEBB34}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{43E62587-43B6-4864-81CF-D4A90CC2B17E}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{DB3F17C6-75E3-45AF-AF65-53913C8F9DF0}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F34442DE-3E90-40BC-92B3-DC1976B364B0}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5E1D47E3-20F0-48E4-A706-A7CB39CED4B1}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{EDE34A63-A702-4D9C-93F3-CFAF2D20B467}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{DF80B54C-25CF-4D9E-9F4A-B19BF26BC298}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{39F49C43-C938-4DE6-9BCA-36C14DD0D959}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F8109A-999E-4372-B95D-BC14C5424F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF0E1DA-6EC6-488D-A258-E48880FD72AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A8FD52F2-8CEA-4FA3-8E39-FE4972511BB3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{300B6E94-19CC-4517-9647-57ACF389FF56}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1366,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30A71C5-2113-4EE8-94E0-20CBCB5BADEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE689E-117A-449F-A8C1-47C758ADAA4C}">
   <dimension ref="A1:AH114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -12012,11 +12012,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F34442DE-3E90-40BC-92B3-DC1976B364B0}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5E1D47E3-20F0-48E4-A706-A7CB39CED4B1}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{EDE34A63-A702-4D9C-93F3-CFAF2D20B467}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{DF80B54C-25CF-4D9E-9F4A-B19BF26BC298}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{39F49C43-C938-4DE6-9BCA-36C14DD0D959}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{57D7A096-701B-4697-9812-7C904F120B47}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{16E734D3-EAC6-4670-B367-1C42A889B83A}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{09689BD2-D9A8-436D-BF0E-D2D186B3390F}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{4FFAEA10-94F1-4331-95D5-B30A55B76918}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{0641E86F-D934-43DD-BBCD-80928068AE1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF0E1DA-6EC6-488D-A258-E48880FD72AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D8B1CB-76F1-4F42-A3C3-58BA7A8DA8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{300B6E94-19CC-4517-9647-57ACF389FF56}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{66D7B144-8FF0-4FF3-A219-01689C9A38BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1366,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE689E-117A-449F-A8C1-47C758ADAA4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC9FB1A-A337-4D22-B80B-9CB5141EB43B}">
   <dimension ref="A1:AH114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -12012,11 +12012,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{57D7A096-701B-4697-9812-7C904F120B47}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{16E734D3-EAC6-4670-B367-1C42A889B83A}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{09689BD2-D9A8-436D-BF0E-D2D186B3390F}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{4FFAEA10-94F1-4331-95D5-B30A55B76918}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{0641E86F-D934-43DD-BBCD-80928068AE1F}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{3B1A30CD-15ED-4AEE-B62B-B74FA94F40CF}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{EE839298-6C6F-4192-8925-89EC2AC593B8}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{CB719412-D8FA-48D3-ACC9-06B1816D83F6}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{B45483A5-2729-491A-95CA-2F9E5BCB3AEA}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{C213B475-6528-42DA-B13B-91341A2135E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D8B1CB-76F1-4F42-A3C3-58BA7A8DA8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F033F0C7-81B2-453F-800A-33F1D542BE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{66D7B144-8FF0-4FF3-A219-01689C9A38BB}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{C32B6553-28FB-447E-85F6-91584BA104B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="197">
   <si>
     <t>Tableau 26 : Production d'électricité et énergie durable</t>
   </si>
@@ -614,16 +614,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC9FB1A-A337-4D22-B80B-9CB5141EB43B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589E9F09-DD93-41E0-AA1D-E6A721DE7E90}">
   <dimension ref="A1:AH114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -11794,7 +11797,7 @@
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -11831,7 +11834,7 @@
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -11867,7 +11870,9 @@
       <c r="AH110" s="45"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -11903,7 +11908,7 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -11940,7 +11945,7 @@
     </row>
     <row r="113" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
@@ -12012,13 +12017,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{3B1A30CD-15ED-4AEE-B62B-B74FA94F40CF}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{EE839298-6C6F-4192-8925-89EC2AC593B8}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{CB719412-D8FA-48D3-ACC9-06B1816D83F6}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{B45483A5-2729-491A-95CA-2F9E5BCB3AEA}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{C213B475-6528-42DA-B13B-91341A2135E0}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{41E74A2A-DA94-45B2-9785-CD0B8D84625E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{30EED551-235D-4110-AC7D-BEAF55D5AEA0}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{AD570813-2CAE-4275-92CE-C08961A13861}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{3F59D301-5FE2-4103-AF80-C324B5004100}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{2A65B7F6-73CC-4508-BB28-5270F12B0695}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{9D4742AE-4FD4-473C-A851-FDB44C161A93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F033F0C7-81B2-453F-800A-33F1D542BE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2FAD2FA-6211-48CC-AC8F-2594971C8BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{C32B6553-28FB-447E-85F6-91584BA104B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{50642659-3CB0-43BB-B692-CB4E06DBDFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab26'!$A$1:$K$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="197">
   <si>
     <t>Tableau 26 : Production d'électricité et énergie durable</t>
   </si>
@@ -1369,20 +1369,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589E9F09-DD93-41E0-AA1D-E6A721DE7E90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC33DB3-66B1-4000-A5F9-AB56A3A01FE1}">
   <dimension ref="A1:AH114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="34" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1419,7 +1419,7 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row r="2" spans="1:34" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>4996.16</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>2273.5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>518.04999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>158.25</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>187686.32</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>52</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>2216.09</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>2477.3000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>56</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>200880.73</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>118.02</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>60</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1336.15</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>325.64</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>66</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>1573.4</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>112.03</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>937.07</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>72</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>74</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>95.53</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>56</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>5343.04</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>77</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>50.12</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>79</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>81</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>85</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>2409.1799999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>87</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>1018.48</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>89</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>91</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>339.44</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>93</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>430.13</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>95</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>99</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>5408.72</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>101</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>4558.2</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>103</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>59.03</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>56</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>18734.3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>106</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>78691</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>108</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>173613.87</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>110</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>33711</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>112</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>114</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>31352.73</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>116</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>20326.900000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>56</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>338794.5</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>119</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>1340.3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>121</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>528.21</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>123</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>348.79</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>125</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>7139.4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>127</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>392.3</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>129</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>12820</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>131</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>970.64</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>133</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>24.78</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>135</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>137</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>1134.77</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>139</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>522.75</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>141</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>27042.32</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>143</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>3733.97</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>145</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>147</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>510.63</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18"/>
       <c r="B61" s="19" t="s">
         <v>149</v>
@@ -7657,7 +7657,7 @@
         <v>56686.86</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26"/>
       <c r="B62" s="27" t="s">
         <v>150</v>
@@ -7759,7 +7759,7 @@
         <v>620439.43000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26"/>
       <c r="B63" s="30" t="s">
         <v>151</v>
@@ -7861,7 +7861,7 @@
         <v>15795377.34</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" s="33"/>
       <c r="B64" s="34" t="s">
         <v>152</v>
@@ -7963,7 +7963,7 @@
         <v>640463.35999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="33"/>
       <c r="B65" s="27" t="s">
         <v>153</v>
@@ -8065,7 +8065,7 @@
         <v>8044165.9299999997</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="33"/>
       <c r="B66" s="37" t="s">
         <v>154</v>
@@ -8167,7 +8167,7 @@
         <v>16415816.77</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" s="33"/>
       <c r="B67" s="40" t="s">
         <v>155</v>
@@ -8269,7 +8269,7 @@
         <v>246689.36</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="33"/>
       <c r="B68" s="27" t="s">
         <v>156</v>
@@ -8371,28 +8371,28 @@
         <v>323820.25</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" s="33"/>
       <c r="B69" s="27" t="s">
         <v>157</v>
       </c>
       <c r="C69" s="35">
-        <v>88769.006229405306</v>
+        <v>106503.960907612</v>
       </c>
       <c r="D69" s="35">
-        <v>40610.272400857502</v>
+        <v>57840.457791189401</v>
       </c>
       <c r="E69" s="35">
-        <v>48158.733828547804</v>
+        <v>48663.503116422602</v>
       </c>
       <c r="F69" s="35">
-        <v>45.741251764979403</v>
+        <v>37.119626127607702</v>
       </c>
       <c r="G69" s="35">
-        <v>75.935480195057295</v>
+        <v>60.340801087798297</v>
       </c>
       <c r="H69" s="36">
-        <v>34.2552837119052</v>
+        <v>25.469660800785899</v>
       </c>
       <c r="I69" s="35">
         <v>126.29</v>
@@ -8410,7 +8410,7 @@
         <v>29.229099999999999</v>
       </c>
       <c r="N69" s="35">
-        <v>17.940000000000001</v>
+        <v>17.947600000000001</v>
       </c>
       <c r="O69" s="35" t="s">
         <v>37</v>
@@ -8419,7 +8419,7 @@
         <v>37</v>
       </c>
       <c r="Q69" s="35">
-        <v>261.03899999999999</v>
+        <v>280.96600000000001</v>
       </c>
       <c r="R69" s="35">
         <v>338.5</v>
@@ -8428,10 +8428,10 @@
         <v>863</v>
       </c>
       <c r="T69" s="35">
-        <v>2618.8490000000002</v>
+        <v>5341.549</v>
       </c>
       <c r="U69" s="35">
-        <v>258.42399999999998</v>
+        <v>261.38400000000001</v>
       </c>
       <c r="V69" s="35" t="s">
         <v>37</v>
@@ -8443,10 +8443,10 @@
         <v>37</v>
       </c>
       <c r="Y69" s="36">
-        <v>2510.7959999999998</v>
+        <v>2539.7959999999998</v>
       </c>
       <c r="Z69" s="35">
-        <v>308.27</v>
+        <v>336.41</v>
       </c>
       <c r="AA69" s="35">
         <v>51.38</v>
@@ -8455,7 +8455,7 @@
         <v>5384.88</v>
       </c>
       <c r="AC69" s="35">
-        <v>11931.37</v>
+        <v>23822.13</v>
       </c>
       <c r="AD69" s="35">
         <v>586.48</v>
@@ -8470,10 +8470,10 @@
         <v>37</v>
       </c>
       <c r="AH69" s="36">
-        <v>8063.87</v>
+        <v>8175.9</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" s="33"/>
       <c r="B70" s="27" t="s">
         <v>158</v>
@@ -8575,7 +8575,7 @@
         <v>10678.64</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
       <c r="B71" s="27" t="s">
         <v>159</v>
@@ -8677,7 +8677,7 @@
         <v>56686.86</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" s="33"/>
       <c r="B72" s="27" t="s">
         <v>160</v>
@@ -8779,7 +8779,7 @@
         <v>10143.93</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" s="33"/>
       <c r="B73" s="27" t="s">
         <v>161</v>
@@ -8881,7 +8881,7 @@
         <v>209243.69</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
       <c r="B74" s="27" t="s">
         <v>161</v>
@@ -8983,7 +8983,7 @@
         <v>165180.63</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="33"/>
       <c r="B75" s="37" t="s">
         <v>162</v>
@@ -9085,7 +9085,7 @@
         <v>6019.26</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" s="33"/>
       <c r="B76" s="40" t="s">
         <v>163</v>
@@ -9187,28 +9187,28 @@
         <v>841852.34</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" s="33"/>
       <c r="B77" s="27" t="s">
         <v>164</v>
       </c>
       <c r="C77" s="35">
-        <v>430441.55063621502</v>
+        <v>401951.09763611498</v>
       </c>
       <c r="D77" s="35">
-        <v>364362.054995935</v>
+        <v>339210.96799193497</v>
       </c>
       <c r="E77" s="35">
-        <v>66079.495640279594</v>
+        <v>62740.1296441796</v>
       </c>
       <c r="F77" s="35">
-        <v>99.815929652770606</v>
+        <v>99.8029083881313</v>
       </c>
       <c r="G77" s="35">
-        <v>99.9865299918213</v>
+        <v>99.985531391023898</v>
       </c>
       <c r="H77" s="36">
-        <v>98.885597864879102</v>
+        <v>98.826979180839103</v>
       </c>
       <c r="I77" s="35">
         <v>492.70260000000002</v>
@@ -9235,16 +9235,16 @@
         <v>951.00469999999996</v>
       </c>
       <c r="Q77" s="35">
-        <v>12698.445</v>
+        <v>12693.125</v>
       </c>
       <c r="R77" s="35">
-        <v>24032</v>
+        <v>23960.720000000001</v>
       </c>
       <c r="S77" s="35">
         <v>39.700000000000003</v>
       </c>
       <c r="T77" s="35">
-        <v>176710.989</v>
+        <v>160189.77900000001</v>
       </c>
       <c r="U77" s="35">
         <v>17768.668000000001</v>
@@ -9259,19 +9259,19 @@
         <v>974</v>
       </c>
       <c r="Y77" s="36">
-        <v>105497.81299999999</v>
+        <v>88653.332999999999</v>
       </c>
       <c r="Z77" s="35">
-        <v>22070.44</v>
+        <v>22062.58</v>
       </c>
       <c r="AA77" s="35">
-        <v>79594.09</v>
+        <v>79506.09</v>
       </c>
       <c r="AB77" s="35">
         <v>216</v>
       </c>
       <c r="AC77" s="35">
-        <v>671460.44</v>
+        <v>606959.64</v>
       </c>
       <c r="AD77" s="35">
         <v>71865.399999999994</v>
@@ -9286,10 +9286,10 @@
         <v>670.75</v>
       </c>
       <c r="AH77" s="36">
-        <v>310588.21000000002</v>
+        <v>285988.90000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" s="33"/>
       <c r="B78" s="27" t="s">
         <v>164</v>
@@ -9391,7 +9391,7 @@
         <v>1016408.92</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="33"/>
       <c r="B79" s="37" t="s">
         <v>165</v>
@@ -9493,31 +9493,31 @@
         <v>5757357.8399999999</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" s="33"/>
       <c r="B80" s="40" t="s">
         <v>166</v>
       </c>
       <c r="C80" s="41">
-        <v>191364.18293044699</v>
+        <v>76718.830717640594</v>
       </c>
       <c r="D80" s="41">
-        <v>153629.787177669</v>
+        <v>63111.231789084602</v>
       </c>
       <c r="E80" s="41">
-        <v>37734.395752777797</v>
+        <v>13607.598928556001</v>
       </c>
       <c r="F80" s="41">
-        <v>59.213201830228101</v>
+        <v>61.151464488815002</v>
       </c>
       <c r="G80" s="41">
-        <v>84.467353072340202</v>
+        <v>83.281879243446696</v>
       </c>
       <c r="H80" s="42">
-        <v>26.705622647956499</v>
+        <v>27.3922650764986</v>
       </c>
       <c r="I80" s="41">
-        <v>12.855700000000001</v>
+        <v>10.556900000000001</v>
       </c>
       <c r="J80" s="41" t="s">
         <v>37</v>
@@ -9525,14 +9525,14 @@
       <c r="K80" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L80" s="41">
-        <v>15.5686</v>
+      <c r="L80" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="M80" s="41" t="s">
         <v>37</v>
       </c>
       <c r="N80" s="41">
-        <v>32.009799999999998</v>
+        <v>27.939499999999999</v>
       </c>
       <c r="O80" s="41" t="s">
         <v>37</v>
@@ -9541,7 +9541,7 @@
         <v>37</v>
       </c>
       <c r="Q80" s="41">
-        <v>592.85299999999995</v>
+        <v>565.26</v>
       </c>
       <c r="R80" s="41">
         <v>73.3</v>
@@ -9550,10 +9550,10 @@
         <v>37</v>
       </c>
       <c r="T80" s="41">
-        <v>6739.4059999999999</v>
+        <v>4628.6059999999998</v>
       </c>
       <c r="U80" s="41">
-        <v>76.734999999999999</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="V80" s="41" t="s">
         <v>37</v>
@@ -9565,10 +9565,10 @@
         <v>37</v>
       </c>
       <c r="Y80" s="42">
-        <v>50016.881999999998</v>
+        <v>39189.582000000002</v>
       </c>
       <c r="Z80" s="41">
-        <v>880.89</v>
+        <v>840.15</v>
       </c>
       <c r="AA80" s="41">
         <v>212.03</v>
@@ -9577,10 +9577,10 @@
         <v>37</v>
       </c>
       <c r="AC80" s="41">
-        <v>24236.19</v>
+        <v>16007.07</v>
       </c>
       <c r="AD80" s="41">
-        <v>231.84</v>
+        <v>210.72</v>
       </c>
       <c r="AE80" s="41" t="s">
         <v>37</v>
@@ -9592,10 +9592,10 @@
         <v>37</v>
       </c>
       <c r="AH80" s="42">
-        <v>149564.38</v>
+        <v>123102.06</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" s="33"/>
       <c r="B81" s="27" t="s">
         <v>167</v>
@@ -9697,31 +9697,31 @@
         <v>2004169.31</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" s="33"/>
       <c r="B82" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C82" s="35">
-        <v>570787.37464425201</v>
+        <v>685432.72685705905</v>
       </c>
       <c r="D82" s="35">
-        <v>332706.589939464</v>
+        <v>423225.14532804798</v>
       </c>
       <c r="E82" s="35">
-        <v>238080.784704789</v>
+        <v>262207.58152901102</v>
       </c>
       <c r="F82" s="35">
-        <v>55.112642763634099</v>
+        <v>55.572834748001199</v>
       </c>
       <c r="G82" s="35">
-        <v>81.234181907142897</v>
+        <v>82.073634145690804</v>
       </c>
       <c r="H82" s="36">
-        <v>38.025432270341298</v>
+        <v>36.532893630096098</v>
       </c>
       <c r="I82" s="35">
-        <v>530.19690000000003</v>
+        <v>532.49570000000006</v>
       </c>
       <c r="J82" s="35">
         <v>127.51390000000001</v>
@@ -9730,13 +9730,13 @@
         <v>37</v>
       </c>
       <c r="L82" s="35">
-        <v>835.21289999999999</v>
+        <v>850.78150000000005</v>
       </c>
       <c r="M82" s="35">
         <v>38.248899999999999</v>
       </c>
       <c r="N82" s="35">
-        <v>199.0086</v>
+        <v>203.0789</v>
       </c>
       <c r="O82" s="35" t="s">
         <v>37</v>
@@ -9745,7 +9745,7 @@
         <v>883.41279999999995</v>
       </c>
       <c r="Q82" s="35">
-        <v>9972.6659999999993</v>
+        <v>10000.259</v>
       </c>
       <c r="R82" s="35">
         <v>6394.8530000000001</v>
@@ -9754,10 +9754,10 @@
         <v>870.3</v>
       </c>
       <c r="T82" s="35">
-        <v>26851.915000000001</v>
+        <v>28962.715</v>
       </c>
       <c r="U82" s="35">
-        <v>1575.4770000000001</v>
+        <v>1585.8119999999999</v>
       </c>
       <c r="V82" s="35" t="s">
         <v>37</v>
@@ -9769,10 +9769,10 @@
         <v>3196</v>
       </c>
       <c r="Y82" s="36">
-        <v>127426.11599999999</v>
+        <v>138253.416</v>
       </c>
       <c r="Z82" s="35">
-        <v>15883.5</v>
+        <v>15924.24</v>
       </c>
       <c r="AA82" s="35">
         <v>10331.91</v>
@@ -9781,10 +9781,10 @@
         <v>5384.88</v>
       </c>
       <c r="AC82" s="35">
-        <v>111493.53</v>
+        <v>119722.65</v>
       </c>
       <c r="AD82" s="35">
-        <v>2730.61</v>
+        <v>2751.73</v>
       </c>
       <c r="AE82" s="35" t="s">
         <v>37</v>
@@ -9796,10 +9796,10 @@
         <v>5283.7</v>
       </c>
       <c r="AH82" s="36">
-        <v>470875.05</v>
+        <v>497337.37</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="33"/>
       <c r="B83" s="37" t="s">
         <v>169</v>
@@ -9901,31 +9901,31 @@
         <v>13791208.029999999</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" s="33"/>
       <c r="B84" s="40" t="s">
         <v>170</v>
       </c>
       <c r="C84" s="41">
-        <v>199800.23268097601</v>
+        <v>208227.69843270601</v>
       </c>
       <c r="D84" s="41">
-        <v>119133.806917522</v>
+        <v>126092.872874768</v>
       </c>
       <c r="E84" s="41">
-        <v>80666.425763453793</v>
+        <v>82134.8255579385</v>
       </c>
       <c r="F84" s="41">
-        <v>35.528727239255701</v>
+        <v>35.821642812684402</v>
       </c>
       <c r="G84" s="41">
-        <v>66.606936361373499</v>
+        <v>67.318390259981001</v>
       </c>
       <c r="H84" s="42">
-        <v>21.0341866401297</v>
+        <v>20.847355562805902</v>
       </c>
       <c r="I84" s="41">
-        <v>267.81220000000002</v>
+        <v>268.03449999999998</v>
       </c>
       <c r="J84" s="41" t="s">
         <v>37</v>
@@ -9934,13 +9934,13 @@
         <v>37</v>
       </c>
       <c r="L84" s="41">
-        <v>353.48820000000001</v>
+        <v>365.60509999999999</v>
       </c>
       <c r="M84" s="41">
         <v>29.244499999999999</v>
       </c>
       <c r="N84" s="41">
-        <v>144.43260000000001</v>
+        <v>144.43340000000001</v>
       </c>
       <c r="O84" s="41" t="s">
         <v>37</v>
@@ -9949,7 +9949,7 @@
         <v>574.31240000000003</v>
       </c>
       <c r="Q84" s="41">
-        <v>685.93600000000004</v>
+        <v>782.36</v>
       </c>
       <c r="R84" s="41">
         <v>330.87200000000001</v>
@@ -9958,10 +9958,10 @@
         <v>7.3</v>
       </c>
       <c r="T84" s="41">
-        <v>13152.074000000001</v>
+        <v>15551.071</v>
       </c>
       <c r="U84" s="41">
-        <v>695.92899999999997</v>
+        <v>738.72900000000004</v>
       </c>
       <c r="V84" s="41" t="s">
         <v>37</v>
@@ -9973,10 +9973,10 @@
         <v>37</v>
       </c>
       <c r="Y84" s="42">
-        <v>6480.9740000000002</v>
+        <v>7005.5739999999996</v>
       </c>
       <c r="Z84" s="41">
-        <v>764.16</v>
+        <v>927.22</v>
       </c>
       <c r="AA84" s="41">
         <v>626.73</v>
@@ -9985,10 +9985,10 @@
         <v>37</v>
       </c>
       <c r="AC84" s="41">
-        <v>52754.559999999998</v>
+        <v>65549.52</v>
       </c>
       <c r="AD84" s="41">
-        <v>540.20000000000005</v>
+        <v>618.51</v>
       </c>
       <c r="AE84" s="41" t="s">
         <v>37</v>
@@ -10000,10 +10000,10 @@
         <v>37</v>
       </c>
       <c r="AH84" s="42">
-        <v>14419.69</v>
+        <v>16635.78</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" s="33"/>
       <c r="B85" s="27" t="s">
         <v>171</v>
@@ -10105,31 +10105,31 @@
         <v>28211.58</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" s="33"/>
       <c r="B86" s="27" t="s">
         <v>172</v>
       </c>
       <c r="C86" s="35">
-        <v>500295.46852741501</v>
+        <v>491868.002775684</v>
       </c>
       <c r="D86" s="35">
-        <v>321201.429921598</v>
+        <v>314242.363964352</v>
       </c>
       <c r="E86" s="35">
-        <v>179094.03860581599</v>
+        <v>177625.638811332</v>
       </c>
       <c r="F86" s="35">
-        <v>69.417363830573805</v>
+        <v>70.088751308741607</v>
       </c>
       <c r="G86" s="35">
-        <v>89.052412971881907</v>
+        <v>89.212364317724493</v>
       </c>
       <c r="H86" s="36">
-        <v>49.745794353051203</v>
+        <v>50.817263249507697</v>
       </c>
       <c r="I86" s="35">
-        <v>275.18110000000001</v>
+        <v>274.9588</v>
       </c>
       <c r="J86" s="35">
         <v>127.51390000000001</v>
@@ -10138,13 +10138,13 @@
         <v>37</v>
       </c>
       <c r="L86" s="35">
-        <v>497.29329999999999</v>
+        <v>485.1764</v>
       </c>
       <c r="M86" s="35">
         <v>8.9688999999999997</v>
       </c>
       <c r="N86" s="35">
-        <v>79.86</v>
+        <v>79.859200000000001</v>
       </c>
       <c r="O86" s="35" t="s">
         <v>37</v>
@@ -10153,7 +10153,7 @@
         <v>309.10039999999998</v>
       </c>
       <c r="Q86" s="35">
-        <v>3645.3150000000001</v>
+        <v>3548.8910000000001</v>
       </c>
       <c r="R86" s="35">
         <v>3599.42</v>
@@ -10162,10 +10162,10 @@
         <v>863</v>
       </c>
       <c r="T86" s="35">
-        <v>18822.43</v>
+        <v>16423.433000000001</v>
       </c>
       <c r="U86" s="35">
-        <v>599.49800000000005</v>
+        <v>556.69799999999998</v>
       </c>
       <c r="V86" s="35" t="s">
         <v>37</v>
@@ -10177,10 +10177,10 @@
         <v>464</v>
       </c>
       <c r="Y86" s="36">
-        <v>114692.37300000001</v>
+        <v>114167.773</v>
       </c>
       <c r="Z86" s="35">
-        <v>7784.34</v>
+        <v>7621.28</v>
       </c>
       <c r="AA86" s="35">
         <v>9572.09</v>
@@ -10189,10 +10189,10 @@
         <v>5384.88</v>
       </c>
       <c r="AC86" s="35">
-        <v>79280.25</v>
+        <v>66485.289999999994</v>
       </c>
       <c r="AD86" s="35">
-        <v>1580.48</v>
+        <v>1502.17</v>
       </c>
       <c r="AE86" s="35" t="s">
         <v>37</v>
@@ -10204,34 +10204,34 @@
         <v>422.45</v>
       </c>
       <c r="AH86" s="36">
-        <v>377789.47</v>
+        <v>375573.38</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" s="33"/>
       <c r="B87" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C87" s="35">
-        <v>2522822.9010638301</v>
+        <v>2528102.3050826099</v>
       </c>
       <c r="D87" s="35">
-        <v>1059433.3959910399</v>
+        <v>1064290.4216535999</v>
       </c>
       <c r="E87" s="35">
-        <v>1463389.50507279</v>
+        <v>1463811.8834290099</v>
       </c>
       <c r="F87" s="35">
-        <v>95.417576157978402</v>
+        <v>95.427118570111404</v>
       </c>
       <c r="G87" s="35">
-        <v>99.423355027378406</v>
+        <v>99.426253178198493</v>
       </c>
       <c r="H87" s="36">
-        <v>92.713280154685407</v>
+        <v>92.715720930863498</v>
       </c>
       <c r="I87" s="35">
-        <v>975.09780000000001</v>
+        <v>975.14290000000005</v>
       </c>
       <c r="J87" s="35">
         <v>75.212000000000003</v>
@@ -10246,7 +10246,7 @@
         <v>4.8129</v>
       </c>
       <c r="N87" s="35">
-        <v>585.02020000000005</v>
+        <v>585.03729999999996</v>
       </c>
       <c r="O87" s="35">
         <v>13.173500000000001</v>
@@ -10255,19 +10255,19 @@
         <v>827.2998</v>
       </c>
       <c r="Q87" s="35">
-        <v>68326.452000000005</v>
+        <v>68398.551999999996</v>
       </c>
       <c r="R87" s="35">
-        <v>43454.769</v>
+        <v>43457.749000000003</v>
       </c>
       <c r="S87" s="35">
         <v>4511.4399999999996</v>
       </c>
       <c r="T87" s="35">
-        <v>133566.72</v>
+        <v>133793.92000000001</v>
       </c>
       <c r="U87" s="35">
-        <v>15242.346</v>
+        <v>15209.846</v>
       </c>
       <c r="V87" s="35" t="s">
         <v>37</v>
@@ -10279,22 +10279,22 @@
         <v>8070.6840000000002</v>
       </c>
       <c r="Y87" s="36">
-        <v>596672.38600000006</v>
+        <v>599989.28599999996</v>
       </c>
       <c r="Z87" s="35">
-        <v>85426.92</v>
+        <v>85528.71</v>
       </c>
       <c r="AA87" s="35">
-        <v>75084.58</v>
+        <v>75084.539999999994</v>
       </c>
       <c r="AB87" s="35">
         <v>29351.17</v>
       </c>
       <c r="AC87" s="35">
-        <v>448941.99</v>
+        <v>449724.37</v>
       </c>
       <c r="AD87" s="35">
-        <v>43630.48</v>
+        <v>43513.11</v>
       </c>
       <c r="AE87" s="35" t="s">
         <v>37</v>
@@ -10306,10 +10306,10 @@
         <v>7516.3</v>
       </c>
       <c r="AH87" s="36">
-        <v>2369444.54</v>
+        <v>2388852.44</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="33"/>
       <c r="B88" s="27" t="s">
         <v>174</v>
@@ -10411,31 +10411,31 @@
         <v>227800.14</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" s="33"/>
       <c r="B89" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C89" s="35">
-        <v>2462123.33962494</v>
+        <v>2433266.9895584299</v>
       </c>
       <c r="D89" s="35">
-        <v>1662081.3129799</v>
+        <v>1643773.69934272</v>
       </c>
       <c r="E89" s="35">
-        <v>799854.30083502701</v>
+        <v>789305.564405691</v>
       </c>
       <c r="F89" s="35">
-        <v>99.921042533740803</v>
+        <v>99.925446037811597</v>
       </c>
       <c r="G89" s="35">
-        <v>99.963796730753003</v>
+        <v>99.963771212553496</v>
       </c>
       <c r="H89" s="36">
-        <v>99.808912663543694</v>
+        <v>99.822003541807206</v>
       </c>
       <c r="I89" s="35">
-        <v>986.51580000000104</v>
+        <v>986.47069999999997</v>
       </c>
       <c r="J89" s="35">
         <v>638.0258</v>
@@ -10450,7 +10450,7 @@
         <v>67.217600000000004</v>
       </c>
       <c r="N89" s="35">
-        <v>2249.431</v>
+        <v>2005.9268999999999</v>
       </c>
       <c r="O89" s="35">
         <v>1.8058000000000001</v>
@@ -10459,82 +10459,82 @@
         <v>979.92669999999998</v>
       </c>
       <c r="Q89" s="35">
-        <v>288196.799</v>
+        <v>286501.70199999999</v>
       </c>
       <c r="R89" s="35">
-        <v>327087.402</v>
+        <v>323801.89500000002</v>
       </c>
       <c r="S89" s="35">
-        <v>2956.998</v>
+        <v>2956.9479999999999</v>
       </c>
       <c r="T89" s="35">
-        <v>629378.799</v>
+        <v>620782.72400000005</v>
       </c>
       <c r="U89" s="35">
-        <v>51586.69</v>
+        <v>51421.224999999999</v>
       </c>
       <c r="V89" s="35">
         <v>6.5</v>
       </c>
       <c r="W89" s="35">
-        <v>88295.5</v>
+        <v>86995.5</v>
       </c>
       <c r="X89" s="35">
-        <v>35439.5</v>
+        <v>35348</v>
       </c>
       <c r="Y89" s="36">
-        <v>1777153.112</v>
+        <v>1764453.0549999999</v>
       </c>
       <c r="Z89" s="35">
-        <v>314958.05</v>
+        <v>312753.7</v>
       </c>
       <c r="AA89" s="35">
-        <v>601610.42000000004</v>
+        <v>594080.80000000005</v>
       </c>
       <c r="AB89" s="35">
         <v>17077.32</v>
       </c>
       <c r="AC89" s="35">
-        <v>2340282.33</v>
+        <v>2316769.5299999998</v>
       </c>
       <c r="AD89" s="35">
-        <v>211438.07999999999</v>
+        <v>210946.88</v>
       </c>
       <c r="AE89" s="35">
         <v>6.85</v>
       </c>
       <c r="AF89" s="35">
-        <v>647772.82999999996</v>
+        <v>636306.43000000005</v>
       </c>
       <c r="AG89" s="35">
-        <v>38066.839999999997</v>
+        <v>37746.699999999997</v>
       </c>
       <c r="AH89" s="36">
-        <v>7330707.3700000001</v>
+        <v>7289185.21</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="33"/>
       <c r="B90" s="37" t="s">
         <v>176</v>
       </c>
       <c r="C90" s="38">
-        <v>1180898.57700191</v>
+        <v>1204475.52304965</v>
       </c>
       <c r="D90" s="38">
-        <v>964256.95208691002</v>
+        <v>977707.54006152903</v>
       </c>
       <c r="E90" s="38">
-        <v>216641.62491499999</v>
+        <v>226767.98298811799</v>
       </c>
       <c r="F90" s="38">
-        <v>100.000000000162</v>
+        <v>99.988252204163601</v>
       </c>
       <c r="G90" s="38">
-        <v>100.000000000076</v>
+        <v>99.999054632731003</v>
       </c>
       <c r="H90" s="39">
-        <v>100.000000000545</v>
+        <v>99.941704369012996</v>
       </c>
       <c r="I90" s="38">
         <v>187.4401</v>
@@ -10552,7 +10552,7 @@
         <v>1.5551999999999999</v>
       </c>
       <c r="N90" s="38">
-        <v>262.6687</v>
+        <v>506.15570000000002</v>
       </c>
       <c r="O90" s="38" t="s">
         <v>37</v>
@@ -10561,67 +10561,67 @@
         <v>483.15839999999997</v>
       </c>
       <c r="Q90" s="38">
-        <v>342423.36700000003</v>
+        <v>344046.364</v>
       </c>
       <c r="R90" s="38">
-        <v>353394.61099999998</v>
+        <v>356677.13799999998</v>
       </c>
       <c r="S90" s="38">
-        <v>5718.9229999999998</v>
+        <v>5718.973</v>
       </c>
       <c r="T90" s="38">
-        <v>393400.73499999999</v>
+        <v>401769.61</v>
       </c>
       <c r="U90" s="38">
-        <v>63960.559000000001</v>
+        <v>64158.523999999998</v>
       </c>
       <c r="V90" s="38">
         <v>517.54100000000005</v>
       </c>
       <c r="W90" s="38">
-        <v>285404.09000000003</v>
+        <v>286704.09000000003</v>
       </c>
       <c r="X90" s="38">
-        <v>74714.240000000005</v>
+        <v>74805.740000000005</v>
       </c>
       <c r="Y90" s="39">
-        <v>1713225.237</v>
+        <v>1722608.3940000001</v>
       </c>
       <c r="Z90" s="38">
-        <v>418727.49</v>
+        <v>420830.05</v>
       </c>
       <c r="AA90" s="38">
-        <v>898011.45</v>
+        <v>905541.11</v>
       </c>
       <c r="AB90" s="38">
         <v>43020.67</v>
       </c>
       <c r="AC90" s="38">
-        <v>1359447.47</v>
+        <v>1382177.89</v>
       </c>
       <c r="AD90" s="38">
-        <v>322988.77</v>
+        <v>323597.34000000003</v>
       </c>
       <c r="AE90" s="38">
         <v>950.62</v>
       </c>
       <c r="AF90" s="38">
-        <v>1850004.26</v>
+        <v>1861470.66</v>
       </c>
       <c r="AG90" s="38">
-        <v>66269.59</v>
+        <v>66589.73</v>
       </c>
       <c r="AH90" s="39">
-        <v>6042844.6699999999</v>
+        <v>6064958.9299999997</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="33"/>
       <c r="B91" s="40" t="s">
         <v>177</v>
       </c>
       <c r="C91" s="41">
-        <v>271821.58946286701</v>
+        <v>271821.58946286602</v>
       </c>
       <c r="D91" s="41">
         <v>173667.11950613401</v>
@@ -10717,7 +10717,7 @@
         <v>33078.120000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" s="33"/>
       <c r="B92" s="27" t="s">
         <v>178</v>
@@ -10819,7 +10819,7 @@
         <v>118158.08</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" s="33"/>
       <c r="B93" s="27" t="s">
         <v>179</v>
@@ -10921,28 +10921,28 @@
         <v>3143.35</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" s="33"/>
       <c r="B94" s="27" t="s">
         <v>180</v>
       </c>
       <c r="C94" s="35">
-        <v>52252.4403313152</v>
+        <v>50774.971331315202</v>
       </c>
       <c r="D94" s="35">
-        <v>36620.623028991104</v>
+        <v>35298.199625891102</v>
       </c>
       <c r="E94" s="35">
-        <v>15444.091492306099</v>
+        <v>15289.0458954061</v>
       </c>
       <c r="F94" s="35">
-        <v>83.510155361614196</v>
+        <v>83.111364071316302</v>
       </c>
       <c r="G94" s="35">
-        <v>95.733962234461401</v>
+        <v>95.581200300802706</v>
       </c>
       <c r="H94" s="36">
-        <v>63.509738900563299</v>
+        <v>63.275589943868503</v>
       </c>
       <c r="I94" s="35">
         <v>43.866399999999999</v>
@@ -10969,10 +10969,10 @@
         <v>5.9183000000000003</v>
       </c>
       <c r="Q94" s="35">
-        <v>1227.461</v>
+        <v>1217.7049999999999</v>
       </c>
       <c r="R94" s="35">
-        <v>506.38200000000001</v>
+        <v>505.702</v>
       </c>
       <c r="S94" s="35">
         <v>56</v>
@@ -10993,13 +10993,13 @@
         <v>37</v>
       </c>
       <c r="Y94" s="36">
-        <v>37634.775000000001</v>
+        <v>28871.775000000001</v>
       </c>
       <c r="Z94" s="35">
-        <v>1310.95</v>
+        <v>1300.95</v>
       </c>
       <c r="AA94" s="35">
-        <v>1430.25</v>
+        <v>1429.05</v>
       </c>
       <c r="AB94" s="35">
         <v>400</v>
@@ -11020,10 +11020,10 @@
         <v>37</v>
       </c>
       <c r="AH94" s="36">
-        <v>145086.9</v>
+        <v>111299.07</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" s="33"/>
       <c r="B95" s="27" t="s">
         <v>181</v>
@@ -11125,7 +11125,7 @@
         <v>11099.06</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="33"/>
       <c r="B96" s="37" t="s">
         <v>182</v>
@@ -11227,31 +11227,31 @@
         <v>220029.21</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" s="33"/>
       <c r="B97" s="40" t="s">
         <v>183</v>
       </c>
       <c r="C97" s="41">
-        <v>451958.15061388002</v>
+        <v>395922.05445362598</v>
       </c>
       <c r="D97" s="41">
-        <v>302836.04857872898</v>
+        <v>263086.29549678601</v>
       </c>
       <c r="E97" s="41">
-        <v>149122.102035152</v>
+        <v>132835.75895684</v>
       </c>
       <c r="F97" s="41">
-        <v>45.333294987766102</v>
+        <v>49.483357342189002</v>
       </c>
       <c r="G97" s="41">
-        <v>76.166975088893807</v>
+        <v>81.817860672497901</v>
       </c>
       <c r="H97" s="42">
-        <v>24.879707876045501</v>
+        <v>27.7573674354215</v>
       </c>
       <c r="I97" s="41">
-        <v>423.92660000000001</v>
+        <v>298.43849999999998</v>
       </c>
       <c r="J97" s="41">
         <v>0.83679999999999999</v>
@@ -11263,31 +11263,31 @@
         <v>428.55689999999998</v>
       </c>
       <c r="M97" s="41">
-        <v>26.526199999999999</v>
+        <v>8.9954000000000001</v>
       </c>
       <c r="N97" s="41">
-        <v>197.77950000000001</v>
+        <v>197.2817</v>
       </c>
       <c r="O97" s="41" t="s">
         <v>37</v>
       </c>
       <c r="P97" s="42">
-        <v>812.47069999999997</v>
+        <v>839.84550000000002</v>
       </c>
       <c r="Q97" s="41">
-        <v>974.53700000000003</v>
+        <v>794.97199999999998</v>
       </c>
       <c r="R97" s="41">
-        <v>703.77200000000005</v>
+        <v>698.29700000000003</v>
       </c>
       <c r="S97" s="41">
         <v>870.3</v>
       </c>
       <c r="T97" s="41">
-        <v>25589.782999999999</v>
+        <v>20977.41</v>
       </c>
       <c r="U97" s="41">
-        <v>1162.818</v>
+        <v>942.65800000000002</v>
       </c>
       <c r="V97" s="41" t="s">
         <v>37</v>
@@ -11299,22 +11299,22 @@
         <v>37</v>
       </c>
       <c r="Y97" s="42">
-        <v>37456.309000000001</v>
+        <v>34088.777999999998</v>
       </c>
       <c r="Z97" s="41">
-        <v>1106.3800000000001</v>
+        <v>978.45</v>
       </c>
       <c r="AA97" s="41">
-        <v>809.31</v>
+        <v>792.19</v>
       </c>
       <c r="AB97" s="41">
         <v>5384.88</v>
       </c>
       <c r="AC97" s="41">
-        <v>106700.88</v>
+        <v>82222</v>
       </c>
       <c r="AD97" s="41">
-        <v>1566.15</v>
+        <v>1447.25</v>
       </c>
       <c r="AE97" s="41" t="s">
         <v>37</v>
@@ -11326,34 +11326,34 @@
         <v>37</v>
       </c>
       <c r="AH97" s="42">
-        <v>103676.65</v>
+        <v>94837.87</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="33"/>
       <c r="B98" s="37" t="s">
         <v>184</v>
       </c>
       <c r="C98" s="38">
-        <v>697204.12000443495</v>
+        <v>576436.72602103697</v>
       </c>
       <c r="D98" s="38">
-        <v>358188.69327008998</v>
+        <v>293498.14509611099</v>
       </c>
       <c r="E98" s="38">
-        <v>339015.42673434602</v>
+        <v>282938.58092492598</v>
       </c>
       <c r="F98" s="38">
-        <v>85.701903123841305</v>
+        <v>85.375253216848293</v>
       </c>
       <c r="G98" s="38">
-        <v>96.117280686305904</v>
+        <v>95.971476671929906</v>
       </c>
       <c r="H98" s="39">
-        <v>76.897895525286799</v>
+        <v>76.601971627348902</v>
       </c>
       <c r="I98" s="38">
-        <v>260.12819999999999</v>
+        <v>239.83609999999999</v>
       </c>
       <c r="J98" s="38">
         <v>8.2035999999999998</v>
@@ -11368,28 +11368,28 @@
         <v>9.74E-2</v>
       </c>
       <c r="N98" s="38">
-        <v>157.607</v>
+        <v>145.67789999999999</v>
       </c>
       <c r="O98" s="38">
         <v>5.5076999999999998</v>
       </c>
       <c r="P98" s="39">
-        <v>807.42610000000002</v>
+        <v>775.60979999999995</v>
       </c>
       <c r="Q98" s="38">
-        <v>2975.4079999999999</v>
+        <v>2650.8240000000001</v>
       </c>
       <c r="R98" s="38">
-        <v>2154.2950000000001</v>
+        <v>2153.2710000000002</v>
       </c>
       <c r="S98" s="38">
         <v>297.44</v>
       </c>
       <c r="T98" s="38">
-        <v>61718.625</v>
+        <v>58261.930999999997</v>
       </c>
       <c r="U98" s="38">
-        <v>2157.4090000000001</v>
+        <v>2150.7040000000002</v>
       </c>
       <c r="V98" s="38" t="s">
         <v>37</v>
@@ -11398,25 +11398,25 @@
         <v>2162</v>
       </c>
       <c r="X98" s="38">
-        <v>1280</v>
+        <v>1040</v>
       </c>
       <c r="Y98" s="39">
-        <v>186733.53599999999</v>
+        <v>156040.31899999999</v>
       </c>
       <c r="Z98" s="38">
-        <v>4703.8900000000003</v>
+        <v>3768.16</v>
       </c>
       <c r="AA98" s="38">
-        <v>4725.32</v>
+        <v>4724.08</v>
       </c>
       <c r="AB98" s="38">
         <v>1748.16</v>
       </c>
       <c r="AC98" s="38">
-        <v>209188.19</v>
+        <v>202220.62</v>
       </c>
       <c r="AD98" s="38">
-        <v>8535.74</v>
+        <v>8502.26</v>
       </c>
       <c r="AE98" s="38" t="s">
         <v>37</v>
@@ -11428,10 +11428,10 @@
         <v>9.9</v>
       </c>
       <c r="AH98" s="39">
-        <v>699782.07</v>
+        <v>568966.93000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="44"/>
       <c r="C99" s="28"/>
@@ -11467,7 +11467,7 @@
       <c r="AG99" s="28"/>
       <c r="AH99" s="28"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>185</v>
       </c>
@@ -11504,7 +11504,7 @@
       <c r="AG100" s="45"/>
       <c r="AH100" s="45"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>186</v>
       </c>
@@ -11541,7 +11541,7 @@
       <c r="AG101" s="45"/>
       <c r="AH101" s="45"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>187</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="AG102" s="45"/>
       <c r="AH102" s="45"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>188</v>
       </c>
@@ -11615,7 +11615,7 @@
       <c r="AG103" s="45"/>
       <c r="AH103" s="45"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>189</v>
       </c>
@@ -11652,7 +11652,7 @@
       <c r="AG104" s="45"/>
       <c r="AH104" s="45"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>190</v>
       </c>
@@ -11689,7 +11689,7 @@
       <c r="AG105" s="45"/>
       <c r="AH105" s="45"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -11723,7 +11723,7 @@
       <c r="AG106" s="45"/>
       <c r="AH106" s="45"/>
     </row>
-    <row r="107" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="46" t="s">
         <v>191</v>
       </c>
@@ -11760,7 +11760,7 @@
       <c r="AG107" s="45"/>
       <c r="AH107" s="45"/>
     </row>
-    <row r="108" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="46"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
@@ -11795,7 +11795,7 @@
       <c r="AG108" s="45"/>
       <c r="AH108" s="45"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>194</v>
       </c>
@@ -11832,7 +11832,7 @@
       <c r="AG109" s="45"/>
       <c r="AH109" s="45"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>195</v>
       </c>
@@ -11869,7 +11869,7 @@
       <c r="AG110" s="45"/>
       <c r="AH110" s="45"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>196</v>
       </c>
@@ -11906,7 +11906,7 @@
       <c r="AG111" s="45"/>
       <c r="AH111" s="45"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>192</v>
       </c>
@@ -11943,7 +11943,7 @@
       <c r="AG112" s="45"/>
       <c r="AH112" s="45"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>193</v>
       </c>
@@ -11980,7 +11980,7 @@
       <c r="AG113" s="45"/>
       <c r="AH113" s="45"/>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
@@ -12017,12 +12017,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{41E74A2A-DA94-45B2-9785-CD0B8D84625E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{30EED551-235D-4110-AC7D-BEAF55D5AEA0}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{AD570813-2CAE-4275-92CE-C08961A13861}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{3F59D301-5FE2-4103-AF80-C324B5004100}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{2A65B7F6-73CC-4508-BB28-5270F12B0695}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{9D4742AE-4FD4-473C-A851-FDB44C161A93}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{237C15F2-AA52-4ED9-8F16-AFA0E9DFC321}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8360F689-2441-4167-BE69-82A91B114130}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{166F332B-7CAB-4619-A6B9-500ECA40F152}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{CE0B3D68-B218-460D-9BEF-43BC183CB3B9}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{C0A24A1F-3370-4BA7-8622-51FE8272E6A1}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{4D8DD159-8262-497E-B067-6C249B8B340F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
